--- a/2015 maj/zadanie5-demografia.xlsx
+++ b/2015 maj/zadanie5-demografia.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DC5057-7D37-4650-97FE-45E277A98194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="11295" windowHeight="5580" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -14,15 +15,25 @@
   <definedNames>
     <definedName name="kraina" localSheetId="0">Arkusz1!$A$2:$E$51</definedName>
     <definedName name="kraina" localSheetId="1">Arkusz2!$A$2:$E$51</definedName>
-    <definedName name="kraina" localSheetId="2">Arkusz3!$A$2:$F$51</definedName>
+    <definedName name="kraina" localSheetId="2">Arkusz3!$A$2:$E$51</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="kraina" type="6" refreshedVersion="3" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="kraina" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="852" sourceFile="C:\Users\Gospodarek Jan\Documents\2015 maj\Dane_PR\kraina.txt" decimal="," thousands=" " semicolon="1">
       <textFields count="5">
         <textField/>
@@ -33,7 +44,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="kraina1" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="kraina1" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="852" sourceFile="C:\Users\Gospodarek Jan\Documents\2015 maj\Dane_PR\kraina.txt" decimal="," thousands=" " semicolon="1">
       <textFields count="5">
         <textField/>
@@ -44,7 +55,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="kraina11" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="kraina11" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="852" sourceFile="C:\Users\Gospodarek Jan\Documents\2015 maj\Dane_PR\kraina.txt" decimal="," thousands=" " semicolon="1">
       <textFields count="5">
         <textField/>
@@ -59,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="64">
   <si>
     <t>w01D</t>
   </si>
@@ -247,14 +258,17 @@
     <t>dupa</t>
   </si>
   <si>
-    <t>temp_wzrostu</t>
+    <t>tempo wzrostu</t>
+  </si>
+  <si>
+    <t>czy przeludnienie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,21 +298,131 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -321,8 +445,9 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -338,12 +463,14 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>zaludnienie</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Arkusz1!$H$3:$K$3</c:f>
@@ -385,7 +512,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E698-4A7A-93B9-8AE6D7AF3310}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="180146944"/>
         <c:axId val="180148480"/>
       </c:barChart>
@@ -394,6 +535,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -411,23 +553,30 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="180148480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="180148480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="180146944"/>
         <c:crosses val="autoZero"/>
@@ -436,9 +585,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -465,7 +616,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -484,15 +641,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="kraina" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="kraina" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="kraina" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="kraina" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="kraina" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="kraina" connectionId="3" xr16:uid="{00000000-0016-0000-0200-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -538,7 +695,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -570,9 +727,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -604,6 +779,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -779,14 +972,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="8" bestFit="1" customWidth="1"/>
@@ -794,7 +987,7 @@
     <col min="10" max="10" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -817,7 +1010,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -842,7 +1035,7 @@
         <v>2812202</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -879,7 +1072,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -920,7 +1113,7 @@
         <v>36530387</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -945,7 +1138,7 @@
         <v>1975115</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -970,7 +1163,7 @@
         <v>4664729</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -995,7 +1188,7 @@
         <v>3698361</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1020,7 +1213,7 @@
         <v>7689971</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1045,7 +1238,7 @@
         <v>1335057</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1070,7 +1263,7 @@
         <v>3291343</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1095,7 +1288,7 @@
         <v>2339967</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1120,7 +1313,7 @@
         <v>3983255</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1145,7 +1338,7 @@
         <v>7688480</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1170,7 +1363,7 @@
         <v>1960392</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1195,7 +1388,7 @@
         <v>2177470</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1220,7 +1413,7 @@
         <v>5134027</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1245,7 +1438,7 @@
         <v>2728601</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1270,7 +1463,7 @@
         <v>5009321</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1295,7 +1488,7 @@
         <v>2729291</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1320,7 +1513,7 @@
         <v>6175874</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1345,7 +1538,7 @@
         <v>3008890</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1370,7 +1563,7 @@
         <v>4752576</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1395,7 +1588,7 @@
         <v>1434562</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1420,7 +1613,7 @@
         <v>4505451</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1445,7 +1638,7 @@
         <v>1327364</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1470,7 +1663,7 @@
         <v>884947</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1495,7 +1688,7 @@
         <v>2151563</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1520,7 +1713,7 @@
         <v>4709695</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1545,7 +1738,7 @@
         <v>5450595</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1570,7 +1763,7 @@
         <v>3703941</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1595,7 +1788,7 @@
         <v>5040530</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1620,7 +1813,7 @@
         <v>3754769</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1645,7 +1838,7 @@
         <v>2021024</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1670,7 +1863,7 @@
         <v>5856254</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1695,7 +1888,7 @@
         <v>158033</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1720,7 +1913,7 @@
         <v>4984142</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1745,7 +1938,7 @@
         <v>3653434</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1770,7 +1963,7 @@
         <v>2921428</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1795,7 +1988,7 @@
         <v>3286803</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1820,7 +2013,7 @@
         <v>1063625</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1845,7 +2038,7 @@
         <v>2270638</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1870,7 +2063,7 @@
         <v>4318105</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1895,7 +2088,7 @@
         <v>4544199</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1920,7 +2113,7 @@
         <v>5125651</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1945,7 +2138,7 @@
         <v>1673241</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1970,7 +2163,7 @@
         <v>2257874</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1995,7 +2188,7 @@
         <v>286380</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2020,7 +2213,7 @@
         <v>2503710</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2045,7 +2238,7 @@
         <v>5369399</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2070,7 +2263,7 @@
         <v>516909</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2103,20 +2296,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -2139,7 +2332,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2164,7 +2357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2189,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2226,7 +2419,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2267,7 +2460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2292,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2317,7 +2510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2342,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2367,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2392,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2417,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2442,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2467,7 +2660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2492,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2517,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2542,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2567,7 +2760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2592,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2617,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2642,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2667,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2692,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2717,7 +2910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2742,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2767,7 +2960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2792,7 +2985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2817,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2842,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2867,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2892,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2917,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2942,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2967,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2992,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3017,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3042,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3067,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3092,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3117,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3142,7 +3335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3167,7 +3360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3192,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3217,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3242,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3267,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3292,7 +3485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3317,7 +3510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3342,7 +3535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3367,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3392,7 +3585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3417,7 +3610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G52">
         <f>SUM(G1:G51)</f>
         <v>19</v>
@@ -3430,19 +3623,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -3453,3521 +3646,4146 @@
     <col min="16" max="16" width="23.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>50</v>
       </c>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="1">
+      <c r="G1">
+        <v>2013</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2014</v>
+      </c>
+      <c r="I1">
         <v>2015</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>2016</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1">
         <v>2017</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>2018</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1">
         <v>2019</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>2020</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1">
         <v>2021</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>2022</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1">
         <v>2023</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="R1" s="1">
         <v>2024</v>
       </c>
-      <c r="R1" s="1">
+      <c r="S1">
         <v>2025</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="T1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <f>ROUNDDOWN((F2+E2)/(C2+D2),4)</f>
+        <v>1415007</v>
+      </c>
+      <c r="C2">
+        <v>1397195</v>
+      </c>
+      <c r="D2">
+        <v>1499070</v>
+      </c>
+      <c r="E2">
+        <v>1481105</v>
+      </c>
+      <c r="F2">
+        <f>ROUNDDOWN(H2/G2,4)</f>
         <v>1.0597000000000001</v>
       </c>
-      <c r="C2">
-        <v>1415007</v>
-      </c>
-      <c r="D2">
-        <v>1397195</v>
-      </c>
-      <c r="E2">
-        <v>1499070</v>
-      </c>
-      <c r="F2">
-        <v>1481105</v>
-      </c>
       <c r="G2">
-        <f>SUM(E2:F2)</f>
+        <f>B2+C2</f>
+        <v>2812202</v>
+      </c>
+      <c r="H2" s="2">
+        <f>D2+E2</f>
         <v>2980175</v>
       </c>
-      <c r="H2" s="1">
-        <f>ROUNDDOWN(G2*B2,0)</f>
-        <v>3158091</v>
-      </c>
       <c r="I2" s="1">
-        <f>IF(ROUNDDOWN(H2*$B2,0)&gt;2*SUM($D2:$E2),H2,ROUNDDOWN(H2*$B2,0))</f>
-        <v>3346629</v>
+        <f>IF(H2&gt;$G2*2,H2,ROUNDDOWN(H2*$F2,4))</f>
+        <v>3158091.4474999998</v>
       </c>
       <c r="J2" s="1">
-        <f t="shared" ref="J2:R2" si="0">IF(ROUNDDOWN(I2*$B2,0)&gt;2*SUM($D2:$E2),I2,ROUNDDOWN(I2*$B2,0))</f>
-        <v>3546422</v>
+        <f>IF(I2=H2,I2,IF(I2&gt;$G2*2,I2,ROUNDDOWN(I2*$F2,4)))</f>
+        <v>3346629.5068999999</v>
       </c>
       <c r="K2" s="1">
-        <f t="shared" si="0"/>
-        <v>3758143</v>
+        <f t="shared" ref="K2:R2" si="0">IF(J2=I2,J2,IF(J2&gt;$G2*2,J2,ROUNDDOWN(J2*$F2,4)))</f>
+        <v>3546423.2884</v>
       </c>
       <c r="L2" s="1">
         <f t="shared" si="0"/>
-        <v>3982504</v>
+        <v>3758144.7587000001</v>
       </c>
       <c r="M2" s="1">
         <f t="shared" si="0"/>
-        <v>4220259</v>
+        <v>3982506.0007000002</v>
       </c>
       <c r="N2" s="1">
         <f t="shared" si="0"/>
-        <v>4472208</v>
+        <v>4220261.6089000003</v>
       </c>
       <c r="O2" s="1">
         <f t="shared" si="0"/>
-        <v>4739198</v>
+        <v>4472211.2269000001</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" si="0"/>
-        <v>5022128</v>
+        <v>4739202.2370999996</v>
       </c>
       <c r="Q2" s="1">
         <f t="shared" si="0"/>
-        <v>5321949</v>
+        <v>5022132.6106000002</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" si="0"/>
-        <v>5639669</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>5321953.9274000004</v>
+      </c>
+      <c r="S2" s="1">
+        <f>IF(R2=Q2,R2,IF(R2&gt;$G2*2,R2,ROUNDDOWN(R2*$F2,4)))</f>
+        <v>5639674.5767999999</v>
+      </c>
+      <c r="T2" s="1">
+        <f>IF(S2=R2,S2,IF(S2&gt;$G2*2,S2,ROUNDDOWN(S2*$F2,4)))</f>
+        <v>5639674.5767999999</v>
+      </c>
+      <c r="U2" s="1">
+        <f>IF(AND(T2=S2,T2&lt;&gt;0),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B51" si="1">ROUNDDOWN((F3+E3)/(C3+D3),4)</f>
+        <v>1711390</v>
+      </c>
+      <c r="C3">
+        <v>1641773</v>
+      </c>
+      <c r="D3">
+        <v>1522030</v>
+      </c>
+      <c r="E3">
+        <v>1618733</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F51" si="1">ROUNDDOWN(H3/G3,4)</f>
         <v>0.93659999999999999</v>
       </c>
-      <c r="C3">
-        <v>1711390</v>
-      </c>
-      <c r="D3">
-        <v>1641773</v>
-      </c>
-      <c r="E3">
-        <v>1522030</v>
-      </c>
-      <c r="F3">
-        <v>1618733</v>
-      </c>
       <c r="G3">
-        <f t="shared" ref="G3:G51" si="2">SUM(E3:F3)</f>
+        <f t="shared" ref="G3:G51" si="2">B3+C3</f>
+        <v>3353163</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H51" si="3">D3+E3</f>
         <v>3140763</v>
       </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H51" si="3">ROUNDDOWN(G3*B3,0)</f>
-        <v>2941638</v>
-      </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:R3" si="4">IF(ROUNDDOWN(H3*$B3,0)&gt;2*SUM($D3:$E3),H3,ROUNDDOWN(H3*$B3,0))</f>
-        <v>2755138</v>
+        <f t="shared" ref="I3:I51" si="4">IF(H3&gt;$G3*2,H3,ROUNDDOWN(H3*$F3,4))</f>
+        <v>2941638.6258</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" si="4"/>
-        <v>2580462</v>
+        <f t="shared" ref="J3:J51" si="5">IF(I3=H3,I3,IF(I3&gt;$G3*2,I3,ROUNDDOWN(I3*$F3,4)))</f>
+        <v>2755138.7368999999</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" si="4"/>
-        <v>2416860</v>
+        <f t="shared" ref="K3:K51" si="6">IF(J3=I3,J3,IF(J3&gt;$G3*2,J3,ROUNDDOWN(J3*$F3,4)))</f>
+        <v>2580462.9408999998</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" si="4"/>
-        <v>2263631</v>
+        <f t="shared" ref="L3:L51" si="7">IF(K3=J3,K3,IF(K3&gt;$G3*2,K3,ROUNDDOWN(K3*$F3,4)))</f>
+        <v>2416861.5904000001</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" si="4"/>
-        <v>2120116</v>
+        <f t="shared" ref="M3:M51" si="8">IF(L3=K3,L3,IF(L3&gt;$G3*2,L3,ROUNDDOWN(L3*$F3,4)))</f>
+        <v>2263632.5655</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" si="4"/>
-        <v>1985700</v>
+        <f t="shared" ref="N3:N51" si="9">IF(M3=L3,M3,IF(M3&gt;$G3*2,M3,ROUNDDOWN(M3*$F3,4)))</f>
+        <v>2120118.2607999998</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" si="4"/>
-        <v>1859806</v>
+        <f t="shared" ref="O3:O51" si="10">IF(N3=M3,N3,IF(N3&gt;$G3*2,N3,ROUNDDOWN(N3*$F3,4)))</f>
+        <v>1985702.763</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" si="4"/>
-        <v>1741894</v>
+        <f t="shared" ref="P3:P51" si="11">IF(O3=N3,O3,IF(O3&gt;$G3*2,O3,ROUNDDOWN(O3*$F3,4)))</f>
+        <v>1859809.2078</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" si="4"/>
-        <v>1631457</v>
+        <f t="shared" ref="Q3:Q51" si="12">IF(P3=O3,P3,IF(P3&gt;$G3*2,P3,ROUNDDOWN(P3*$F3,4)))</f>
+        <v>1741897.304</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" si="4"/>
-        <v>1528022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <f t="shared" ref="R3:R51" si="13">IF(Q3=P3,Q3,IF(Q3&gt;$G3*2,Q3,ROUNDDOWN(Q3*$F3,4)))</f>
+        <v>1631461.0149000001</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S51" si="14">IF(R3=Q3,R3,IF(R3&gt;$G3*2,R3,ROUNDDOWN(R3*$F3,4)))</f>
+        <v>1528026.3865</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" ref="T3:T51" si="15">IF(S3=R3,S3,IF(S3&gt;$G3*2,S3,ROUNDDOWN(S3*$F3,4)))</f>
+        <v>1431149.5134999999</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3:U51" si="16">IF(AND(T3=S3,T3&lt;&gt;0),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>1165105</v>
+      </c>
+      <c r="C4">
+        <v>1278732</v>
+      </c>
+      <c r="D4">
+        <v>1299953</v>
+      </c>
+      <c r="E4">
+        <v>1191621</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="1"/>
         <v>1.0195000000000001</v>
-      </c>
-      <c r="C4">
-        <v>1165105</v>
-      </c>
-      <c r="D4">
-        <v>1278732</v>
-      </c>
-      <c r="E4">
-        <v>1299953</v>
-      </c>
-      <c r="F4">
-        <v>1191621</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
+        <v>2443837</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="3"/>
         <v>2491574</v>
       </c>
-      <c r="H4" s="1">
-        <f t="shared" si="3"/>
-        <v>2540159</v>
-      </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:R4" si="5">IF(ROUNDDOWN(H4*$B4,0)&gt;2*SUM($D4:$E4),H4,ROUNDDOWN(H4*$B4,0))</f>
-        <v>2589692</v>
+        <f t="shared" si="4"/>
+        <v>2540159.693</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="5"/>
-        <v>2640190</v>
+        <v>2589692.807</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="5"/>
-        <v>2691673</v>
+        <f t="shared" si="6"/>
+        <v>2640191.8166999999</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="5"/>
-        <v>2744160</v>
+        <f t="shared" si="7"/>
+        <v>2691675.5570999999</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" si="5"/>
-        <v>2797671</v>
+        <f t="shared" si="8"/>
+        <v>2744163.2303999998</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" si="5"/>
-        <v>2852225</v>
+        <f t="shared" si="9"/>
+        <v>2797674.4133000001</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" si="5"/>
-        <v>2907843</v>
+        <f t="shared" si="10"/>
+        <v>2852229.0643000002</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" si="5"/>
-        <v>2964545</v>
+        <f t="shared" si="11"/>
+        <v>2907847.531</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" si="5"/>
-        <v>3022353</v>
+        <f t="shared" si="12"/>
+        <v>2964550.5578000001</v>
       </c>
       <c r="R4" s="1">
-        <f t="shared" si="5"/>
-        <v>3081288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>3022359.2936</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="14"/>
+        <v>3081295.2998000002</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="15"/>
+        <v>3141380.5581</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>949065</v>
+      </c>
+      <c r="C5">
+        <v>1026050</v>
+      </c>
+      <c r="D5">
+        <v>688027</v>
+      </c>
+      <c r="E5">
+        <v>723233</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="1"/>
         <v>0.71450000000000002</v>
-      </c>
-      <c r="C5">
-        <v>949065</v>
-      </c>
-      <c r="D5">
-        <v>1026050</v>
-      </c>
-      <c r="E5">
-        <v>688027</v>
-      </c>
-      <c r="F5">
-        <v>723233</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
+        <v>1975115</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="3"/>
         <v>1411260</v>
       </c>
-      <c r="H5" s="1">
-        <f t="shared" si="3"/>
-        <v>1008345</v>
-      </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:R5" si="6">IF(ROUNDDOWN(H5*$B5,0)&gt;2*SUM($D5:$E5),H5,ROUNDDOWN(H5*$B5,0))</f>
-        <v>720462</v>
+        <f t="shared" si="4"/>
+        <v>1008345.27</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="6"/>
-        <v>514770</v>
+        <f t="shared" si="5"/>
+        <v>720462.69539999997</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="6"/>
-        <v>367803</v>
+        <v>514770.59580000001</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="6"/>
-        <v>262795</v>
+        <f t="shared" si="7"/>
+        <v>367803.5906</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="6"/>
-        <v>187767</v>
+        <f t="shared" si="8"/>
+        <v>262795.6654</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" si="6"/>
-        <v>134159</v>
+        <f t="shared" si="9"/>
+        <v>187767.50289999999</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="6"/>
-        <v>95856</v>
+        <f t="shared" si="10"/>
+        <v>134159.88080000001</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" si="6"/>
-        <v>68489</v>
+        <f t="shared" si="11"/>
+        <v>95857.234800000006</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" si="6"/>
-        <v>48935</v>
+        <f t="shared" si="12"/>
+        <v>68489.994200000001</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" si="6"/>
-        <v>34964</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>48936.1008</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="14"/>
+        <v>34964.843999999997</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="15"/>
+        <v>24982.381000000001</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>2436107</v>
+      </c>
+      <c r="C6">
+        <v>2228622</v>
+      </c>
+      <c r="D6">
+        <v>1831600</v>
+      </c>
+      <c r="E6">
+        <v>1960624</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="1"/>
         <v>0.81289999999999996</v>
-      </c>
-      <c r="C6">
-        <v>2436107</v>
-      </c>
-      <c r="D6">
-        <v>2228622</v>
-      </c>
-      <c r="E6">
-        <v>1831600</v>
-      </c>
-      <c r="F6">
-        <v>1960624</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
+        <v>4664729</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="3"/>
         <v>3792224</v>
       </c>
-      <c r="H6" s="1">
-        <f t="shared" si="3"/>
-        <v>3082698</v>
-      </c>
       <c r="I6" s="1">
-        <f t="shared" ref="I6:R6" si="7">IF(ROUNDDOWN(H6*$B6,0)&gt;2*SUM($D6:$E6),H6,ROUNDDOWN(H6*$B6,0))</f>
-        <v>2505925</v>
+        <f t="shared" si="4"/>
+        <v>3082698.8895999999</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="7"/>
-        <v>2037066</v>
+        <f t="shared" si="5"/>
+        <v>2505925.9273000001</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="7"/>
-        <v>1655930</v>
+        <f t="shared" si="6"/>
+        <v>2037067.1862999999</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="7"/>
-        <v>1346105</v>
+        <v>1655931.9157</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="7"/>
-        <v>1094248</v>
+        <f t="shared" si="8"/>
+        <v>1346107.0541999999</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" si="7"/>
-        <v>889514</v>
+        <f t="shared" si="9"/>
+        <v>1094250.4243000001</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="7"/>
-        <v>723085</v>
+        <f t="shared" si="10"/>
+        <v>889516.16989999998</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="7"/>
-        <v>587795</v>
+        <f t="shared" si="11"/>
+        <v>723087.69449999998</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="7"/>
-        <v>477818</v>
+        <f t="shared" si="12"/>
+        <v>587797.98679999996</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" si="7"/>
-        <v>388418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>477820.98340000003</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="14"/>
+        <v>388420.67739999999</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="15"/>
+        <v>315747.16859999998</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
+        <v>1846928</v>
+      </c>
+      <c r="C7">
+        <v>1851433</v>
+      </c>
+      <c r="D7">
+        <v>2125113</v>
+      </c>
+      <c r="E7">
+        <v>2028635</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="1"/>
         <v>1.1231</v>
-      </c>
-      <c r="C7">
-        <v>1846928</v>
-      </c>
-      <c r="D7">
-        <v>1851433</v>
-      </c>
-      <c r="E7">
-        <v>2125113</v>
-      </c>
-      <c r="F7">
-        <v>2028635</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
+        <v>3698361</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="3"/>
         <v>4153748</v>
       </c>
-      <c r="H7" s="1">
-        <f t="shared" si="3"/>
-        <v>4665074</v>
-      </c>
       <c r="I7" s="1">
-        <f t="shared" ref="I7:R7" si="8">IF(ROUNDDOWN(H7*$B7,0)&gt;2*SUM($D7:$E7),H7,ROUNDDOWN(H7*$B7,0))</f>
-        <v>5239344</v>
+        <f t="shared" si="4"/>
+        <v>4665074.3788000001</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="8"/>
-        <v>5884307</v>
+        <f t="shared" si="5"/>
+        <v>5239345.0347999996</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="8"/>
-        <v>6608665</v>
+        <f t="shared" si="6"/>
+        <v>5884308.4084999999</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="8"/>
-        <v>7422191</v>
+        <f t="shared" si="7"/>
+        <v>6608666.7735000001</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="8"/>
-        <v>7422191</v>
+        <v>7422193.6533000004</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="8"/>
-        <v>7422191</v>
+        <f t="shared" si="9"/>
+        <v>7422193.6533000004</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="8"/>
-        <v>7422191</v>
+        <f t="shared" si="10"/>
+        <v>7422193.6533000004</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="8"/>
-        <v>7422191</v>
+        <f t="shared" si="11"/>
+        <v>7422193.6533000004</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" si="8"/>
-        <v>7422191</v>
+        <f t="shared" si="12"/>
+        <v>7422193.6533000004</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" si="8"/>
-        <v>7422191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>7422193.6533000004</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="14"/>
+        <v>7422193.6533000004</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="15"/>
+        <v>7422193.6533000004</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
+        <v>3841577</v>
+      </c>
+      <c r="C8">
+        <v>3848394</v>
+      </c>
+      <c r="D8">
+        <v>3595975</v>
+      </c>
+      <c r="E8">
+        <v>3123039</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="1"/>
         <v>0.87370000000000003</v>
-      </c>
-      <c r="C8">
-        <v>3841577</v>
-      </c>
-      <c r="D8">
-        <v>3848394</v>
-      </c>
-      <c r="E8">
-        <v>3595975</v>
-      </c>
-      <c r="F8">
-        <v>3123039</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
+        <v>7689971</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="3"/>
         <v>6719014</v>
       </c>
-      <c r="H8" s="1">
-        <f t="shared" si="3"/>
-        <v>5870402</v>
-      </c>
       <c r="I8" s="1">
-        <f t="shared" ref="I8:R8" si="9">IF(ROUNDDOWN(H8*$B8,0)&gt;2*SUM($D8:$E8),H8,ROUNDDOWN(H8*$B8,0))</f>
-        <v>5128970</v>
+        <f t="shared" si="4"/>
+        <v>5870402.5318</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="9"/>
-        <v>4481181</v>
+        <f t="shared" si="5"/>
+        <v>5128970.6919999998</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="9"/>
-        <v>3915207</v>
+        <f t="shared" si="6"/>
+        <v>4481181.6935999999</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="9"/>
-        <v>3420716</v>
+        <f t="shared" si="7"/>
+        <v>3915208.4456000002</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="9"/>
-        <v>2988679</v>
+        <f t="shared" si="8"/>
+        <v>3420717.6189000001</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="9"/>
-        <v>2611208</v>
+        <v>2988680.9835999999</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="9"/>
-        <v>2281412</v>
+        <f t="shared" si="10"/>
+        <v>2611210.5753000001</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="9"/>
-        <v>1993269</v>
+        <f t="shared" si="11"/>
+        <v>2281414.6795999999</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="9"/>
-        <v>1741519</v>
+        <f t="shared" si="12"/>
+        <v>1993272.0055</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" si="9"/>
-        <v>1521565</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>1741521.7512000001</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="14"/>
+        <v>1521567.554</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="15"/>
+        <v>1329393.5719000001</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
+        <v>679557</v>
+      </c>
+      <c r="C9">
+        <v>655500</v>
+      </c>
+      <c r="D9">
+        <v>1012012</v>
+      </c>
+      <c r="E9">
+        <v>1067022</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="1"/>
         <v>1.5571999999999999</v>
-      </c>
-      <c r="C9">
-        <v>679557</v>
-      </c>
-      <c r="D9">
-        <v>655500</v>
-      </c>
-      <c r="E9">
-        <v>1012012</v>
-      </c>
-      <c r="F9">
-        <v>1067022</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
+        <v>1335057</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="3"/>
         <v>2079034</v>
       </c>
-      <c r="H9" s="1">
-        <f t="shared" si="3"/>
-        <v>3237471</v>
-      </c>
       <c r="I9" s="1">
-        <f t="shared" ref="I9:R9" si="10">IF(ROUNDDOWN(H9*$B9,0)&gt;2*SUM($D9:$E9),H9,ROUNDDOWN(H9*$B9,0))</f>
-        <v>3237471</v>
+        <f t="shared" si="4"/>
+        <v>3237471.7448</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="10"/>
-        <v>3237471</v>
+        <f t="shared" si="5"/>
+        <v>3237471.7448</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="10"/>
-        <v>3237471</v>
+        <f t="shared" si="6"/>
+        <v>3237471.7448</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="10"/>
-        <v>3237471</v>
+        <f t="shared" si="7"/>
+        <v>3237471.7448</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="10"/>
-        <v>3237471</v>
+        <f t="shared" si="8"/>
+        <v>3237471.7448</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="10"/>
-        <v>3237471</v>
+        <f t="shared" si="9"/>
+        <v>3237471.7448</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="10"/>
-        <v>3237471</v>
+        <v>3237471.7448</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="10"/>
-        <v>3237471</v>
+        <f t="shared" si="11"/>
+        <v>3237471.7448</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="10"/>
-        <v>3237471</v>
+        <f t="shared" si="12"/>
+        <v>3237471.7448</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" si="10"/>
-        <v>3237471</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>3237471.7448</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="14"/>
+        <v>3237471.7448</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="15"/>
+        <v>3237471.7448</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
+        <v>1660998</v>
+      </c>
+      <c r="C10">
+        <v>1630345</v>
+      </c>
+      <c r="D10">
+        <v>1130119</v>
+      </c>
+      <c r="E10">
+        <v>1080238</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="1"/>
         <v>0.67149999999999999</v>
-      </c>
-      <c r="C10">
-        <v>1660998</v>
-      </c>
-      <c r="D10">
-        <v>1630345</v>
-      </c>
-      <c r="E10">
-        <v>1130119</v>
-      </c>
-      <c r="F10">
-        <v>1080238</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
+        <v>3291343</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="3"/>
         <v>2210357</v>
       </c>
-      <c r="H10" s="1">
-        <f t="shared" si="3"/>
-        <v>1484254</v>
-      </c>
       <c r="I10" s="1">
-        <f t="shared" ref="I10:R10" si="11">IF(ROUNDDOWN(H10*$B10,0)&gt;2*SUM($D10:$E10),H10,ROUNDDOWN(H10*$B10,0))</f>
-        <v>996676</v>
+        <f t="shared" si="4"/>
+        <v>1484254.7254999999</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="11"/>
-        <v>669267</v>
+        <f t="shared" si="5"/>
+        <v>996677.04810000001</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="11"/>
-        <v>449412</v>
+        <f t="shared" si="6"/>
+        <v>669268.63769999996</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="11"/>
-        <v>301780</v>
+        <f t="shared" si="7"/>
+        <v>449413.89020000002</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="11"/>
-        <v>202645</v>
+        <f t="shared" si="8"/>
+        <v>301781.42719999998</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="11"/>
-        <v>136076</v>
+        <f t="shared" si="9"/>
+        <v>202646.22829999999</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="11"/>
-        <v>91375</v>
+        <f t="shared" si="10"/>
+        <v>136076.9423</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" si="11"/>
-        <v>61358</v>
+        <v>91375.666700000002</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="11"/>
-        <v>41201</v>
+        <f t="shared" si="12"/>
+        <v>61358.7601</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" si="11"/>
-        <v>27666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>41202.407399999996</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="14"/>
+        <v>27667.416499999999</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="15"/>
+        <v>18578.670099999999</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
+        <v>1157622</v>
+      </c>
+      <c r="C11">
+        <v>1182345</v>
+      </c>
+      <c r="D11">
+        <v>830785</v>
+      </c>
+      <c r="E11">
+        <v>833779</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="1"/>
         <v>0.71130000000000004</v>
-      </c>
-      <c r="C11">
-        <v>1157622</v>
-      </c>
-      <c r="D11">
-        <v>1182345</v>
-      </c>
-      <c r="E11">
-        <v>830785</v>
-      </c>
-      <c r="F11">
-        <v>833779</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
+        <v>2339967</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="3"/>
         <v>1664564</v>
       </c>
-      <c r="H11" s="1">
-        <f t="shared" si="3"/>
-        <v>1184004</v>
-      </c>
       <c r="I11" s="1">
-        <f t="shared" ref="I11:R11" si="12">IF(ROUNDDOWN(H11*$B11,0)&gt;2*SUM($D11:$E11),H11,ROUNDDOWN(H11*$B11,0))</f>
-        <v>842182</v>
+        <f t="shared" si="4"/>
+        <v>1184004.3732</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="12"/>
-        <v>599044</v>
+        <f t="shared" si="5"/>
+        <v>842182.31059999997</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="12"/>
-        <v>426099</v>
+        <f t="shared" si="6"/>
+        <v>599044.27749999997</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="12"/>
-        <v>303084</v>
+        <f t="shared" si="7"/>
+        <v>426100.19449999998</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="12"/>
-        <v>215583</v>
+        <f t="shared" si="8"/>
+        <v>303085.06829999998</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="12"/>
-        <v>153344</v>
+        <f t="shared" si="9"/>
+        <v>215584.40900000001</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="12"/>
-        <v>109073</v>
+        <f t="shared" si="10"/>
+        <v>153345.19010000001</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="12"/>
-        <v>77583</v>
+        <f t="shared" si="11"/>
+        <v>109074.43369999999</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="12"/>
-        <v>55184</v>
+        <v>77584.6446</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="12"/>
-        <v>39252</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>55185.957699999999</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="14"/>
+        <v>39253.771699999998</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="15"/>
+        <v>27921.2078</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
+        <v>1987047</v>
+      </c>
+      <c r="C12">
+        <v>1996208</v>
+      </c>
+      <c r="D12">
+        <v>2053892</v>
+      </c>
+      <c r="E12">
+        <v>1697247</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="1"/>
         <v>0.94169999999999998</v>
-      </c>
-      <c r="C12">
-        <v>1987047</v>
-      </c>
-      <c r="D12">
-        <v>1996208</v>
-      </c>
-      <c r="E12">
-        <v>2053892</v>
-      </c>
-      <c r="F12">
-        <v>1697247</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
+        <v>3983255</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="3"/>
         <v>3751139</v>
       </c>
-      <c r="H12" s="1">
-        <f t="shared" si="3"/>
-        <v>3532447</v>
-      </c>
       <c r="I12" s="1">
-        <f t="shared" ref="I12:R12" si="13">IF(ROUNDDOWN(H12*$B12,0)&gt;2*SUM($D12:$E12),H12,ROUNDDOWN(H12*$B12,0))</f>
-        <v>3326505</v>
+        <f t="shared" si="4"/>
+        <v>3532447.5962999999</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="13"/>
-        <v>3132569</v>
+        <f t="shared" si="5"/>
+        <v>3326505.9013999999</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="13"/>
-        <v>2949940</v>
+        <f t="shared" si="6"/>
+        <v>3132570.6072999998</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="13"/>
-        <v>2777958</v>
+        <f t="shared" si="7"/>
+        <v>2949941.7407999998</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="13"/>
-        <v>2616003</v>
+        <f t="shared" si="8"/>
+        <v>2777960.1373000001</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="13"/>
-        <v>2463490</v>
+        <f t="shared" si="9"/>
+        <v>2616005.0611999999</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="13"/>
-        <v>2319868</v>
+        <f t="shared" si="10"/>
+        <v>2463491.9660999998</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="13"/>
-        <v>2184619</v>
+        <f t="shared" si="11"/>
+        <v>2319870.3843999999</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" si="13"/>
-        <v>2057255</v>
+        <f t="shared" si="12"/>
+        <v>2184621.9408999998</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" si="13"/>
-        <v>1937317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>2057258.4816999999</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="14"/>
+        <v>1937320.3122</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="15"/>
+        <v>1824374.5379000001</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
+        <v>3997724</v>
+      </c>
+      <c r="C13">
+        <v>3690756</v>
+      </c>
+      <c r="D13">
+        <v>4339393</v>
+      </c>
+      <c r="E13">
+        <v>4639643</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="1"/>
         <v>1.1677999999999999</v>
-      </c>
-      <c r="C13">
-        <v>3997724</v>
-      </c>
-      <c r="D13">
-        <v>3690756</v>
-      </c>
-      <c r="E13">
-        <v>4339393</v>
-      </c>
-      <c r="F13">
-        <v>4639643</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
+        <v>7688480</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="3"/>
         <v>8979036</v>
       </c>
-      <c r="H13" s="1">
-        <f t="shared" si="3"/>
-        <v>10485718</v>
-      </c>
       <c r="I13" s="1">
-        <f t="shared" ref="I13:R13" si="14">IF(ROUNDDOWN(H13*$B13,0)&gt;2*SUM($D13:$E13),H13,ROUNDDOWN(H13*$B13,0))</f>
-        <v>12245221</v>
+        <f t="shared" si="4"/>
+        <v>10485718.240800001</v>
       </c>
       <c r="J13" s="1">
+        <f t="shared" si="5"/>
+        <v>12245221.761600001</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="6"/>
+        <v>14299969.973099999</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="7"/>
+        <v>16699504.9345</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="8"/>
+        <v>16699504.9345</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="9"/>
+        <v>16699504.9345</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="10"/>
+        <v>16699504.9345</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="11"/>
+        <v>16699504.9345</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="12"/>
+        <v>16699504.9345</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="13"/>
+        <v>16699504.9345</v>
+      </c>
+      <c r="S13" s="1">
         <f t="shared" si="14"/>
-        <v>14299969</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="14"/>
-        <v>14299969</v>
-      </c>
-      <c r="L13" s="1">
-        <f t="shared" si="14"/>
-        <v>14299969</v>
-      </c>
-      <c r="M13" s="1">
-        <f t="shared" si="14"/>
-        <v>14299969</v>
-      </c>
-      <c r="N13" s="1">
-        <f t="shared" si="14"/>
-        <v>14299969</v>
-      </c>
-      <c r="O13" s="1">
-        <f t="shared" si="14"/>
-        <v>14299969</v>
-      </c>
-      <c r="P13" s="1">
-        <f t="shared" si="14"/>
-        <v>14299969</v>
-      </c>
-      <c r="Q13" s="1">
-        <f t="shared" si="14"/>
-        <v>14299969</v>
-      </c>
-      <c r="R13" s="1">
-        <f t="shared" si="14"/>
-        <v>14299969</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>16699504.9345</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="15"/>
+        <v>16699504.9345</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
+        <v>996113</v>
+      </c>
+      <c r="C14">
+        <v>964279</v>
+      </c>
+      <c r="D14">
+        <v>1012487</v>
+      </c>
+      <c r="E14">
+        <v>1128940</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="1"/>
         <v>1.0923</v>
-      </c>
-      <c r="C14">
-        <v>996113</v>
-      </c>
-      <c r="D14">
-        <v>964279</v>
-      </c>
-      <c r="E14">
-        <v>1012487</v>
-      </c>
-      <c r="F14">
-        <v>1128940</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
+        <v>1960392</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="3"/>
         <v>2141427</v>
       </c>
-      <c r="H14" s="1">
-        <f t="shared" si="3"/>
-        <v>2339080</v>
-      </c>
       <c r="I14" s="1">
-        <f t="shared" ref="I14:R14" si="15">IF(ROUNDDOWN(H14*$B14,0)&gt;2*SUM($D14:$E14),H14,ROUNDDOWN(H14*$B14,0))</f>
-        <v>2554977</v>
+        <f t="shared" si="4"/>
+        <v>2339080.7121000001</v>
       </c>
       <c r="J14" s="1">
+        <f t="shared" si="5"/>
+        <v>2554977.8618000001</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="6"/>
+        <v>2790802.3184000002</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="7"/>
+        <v>3048393.3722999999</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="8"/>
+        <v>3329760.0805000002</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="9"/>
+        <v>3637096.9358999999</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="10"/>
+        <v>3972800.983</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="11"/>
+        <v>3972800.983</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="12"/>
+        <v>3972800.983</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="13"/>
+        <v>3972800.983</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="14"/>
+        <v>3972800.983</v>
+      </c>
+      <c r="T14" s="1">
         <f t="shared" si="15"/>
-        <v>2790801</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="15"/>
-        <v>3048391</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" si="15"/>
-        <v>3329757</v>
-      </c>
-      <c r="M14" s="1">
-        <f t="shared" si="15"/>
-        <v>3637093</v>
-      </c>
-      <c r="N14" s="1">
-        <f t="shared" si="15"/>
-        <v>3637093</v>
-      </c>
-      <c r="O14" s="1">
-        <f t="shared" si="15"/>
-        <v>3637093</v>
-      </c>
-      <c r="P14" s="1">
-        <f t="shared" si="15"/>
-        <v>3637093</v>
-      </c>
-      <c r="Q14" s="1">
-        <f t="shared" si="15"/>
-        <v>3637093</v>
-      </c>
-      <c r="R14" s="1">
-        <f t="shared" si="15"/>
-        <v>3637093</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>3972800.983</v>
+      </c>
+      <c r="U14" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
+        <v>1143634</v>
+      </c>
+      <c r="C15">
+        <v>1033836</v>
+      </c>
+      <c r="D15">
+        <v>909534</v>
+      </c>
+      <c r="E15">
+        <v>856349</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="1"/>
         <v>0.81089999999999995</v>
-      </c>
-      <c r="C15">
-        <v>1143634</v>
-      </c>
-      <c r="D15">
-        <v>1033836</v>
-      </c>
-      <c r="E15">
-        <v>909534</v>
-      </c>
-      <c r="F15">
-        <v>856349</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
+        <v>2177470</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="3"/>
         <v>1765883</v>
       </c>
-      <c r="H15" s="1">
-        <f t="shared" si="3"/>
-        <v>1431954</v>
-      </c>
       <c r="I15" s="1">
-        <f t="shared" ref="I15:R15" si="16">IF(ROUNDDOWN(H15*$B15,0)&gt;2*SUM($D15:$E15),H15,ROUNDDOWN(H15*$B15,0))</f>
-        <v>1161171</v>
+        <f t="shared" si="4"/>
+        <v>1431954.5247</v>
       </c>
       <c r="J15" s="1">
+        <f t="shared" si="5"/>
+        <v>1161171.9240000001</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="6"/>
+        <v>941594.31310000003</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="7"/>
+        <v>763538.8284</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="8"/>
+        <v>619153.63589999999</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="9"/>
+        <v>502071.68329999998</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="10"/>
+        <v>407129.92790000001</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="11"/>
+        <v>330141.65850000002</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="12"/>
+        <v>267711.87079999998</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="13"/>
+        <v>217087.55600000001</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="14"/>
+        <v>176036.2991</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="15"/>
+        <v>142747.83489999999</v>
+      </c>
+      <c r="U15" s="1">
         <f t="shared" si="16"/>
-        <v>941593</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="16"/>
-        <v>763537</v>
-      </c>
-      <c r="L15" s="1">
-        <f t="shared" si="16"/>
-        <v>619152</v>
-      </c>
-      <c r="M15" s="1">
-        <f t="shared" si="16"/>
-        <v>502070</v>
-      </c>
-      <c r="N15" s="1">
-        <f t="shared" si="16"/>
-        <v>407128</v>
-      </c>
-      <c r="O15" s="1">
-        <f t="shared" si="16"/>
-        <v>330140</v>
-      </c>
-      <c r="P15" s="1">
-        <f t="shared" si="16"/>
-        <v>267710</v>
-      </c>
-      <c r="Q15" s="1">
-        <f t="shared" si="16"/>
-        <v>217086</v>
-      </c>
-      <c r="R15" s="1">
-        <f t="shared" si="16"/>
-        <v>176035</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
+        <v>2549276</v>
+      </c>
+      <c r="C16">
+        <v>2584751</v>
+      </c>
+      <c r="D16">
+        <v>2033079</v>
+      </c>
+      <c r="E16">
+        <v>2066918</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="1"/>
         <v>0.79849999999999999</v>
-      </c>
-      <c r="C16">
-        <v>2549276</v>
-      </c>
-      <c r="D16">
-        <v>2584751</v>
-      </c>
-      <c r="E16">
-        <v>2033079</v>
-      </c>
-      <c r="F16">
-        <v>2066918</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
+        <v>5134027</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="3"/>
         <v>4099997</v>
       </c>
-      <c r="H16" s="1">
-        <f t="shared" si="3"/>
-        <v>3273847</v>
-      </c>
       <c r="I16" s="1">
-        <f t="shared" ref="I16:R16" si="17">IF(ROUNDDOWN(H16*$B16,0)&gt;2*SUM($D16:$E16),H16,ROUNDDOWN(H16*$B16,0))</f>
-        <v>2614166</v>
+        <f t="shared" si="4"/>
+        <v>3273847.6044999999</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="17"/>
-        <v>2087411</v>
+        <f t="shared" si="5"/>
+        <v>2614167.3121000002</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="17"/>
-        <v>1666797</v>
+        <f t="shared" si="6"/>
+        <v>2087412.5987</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="17"/>
-        <v>1330937</v>
+        <f t="shared" si="7"/>
+        <v>1666798.96</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="17"/>
-        <v>1062753</v>
+        <f t="shared" si="8"/>
+        <v>1330938.9694999999</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="17"/>
-        <v>848608</v>
+        <f t="shared" si="9"/>
+        <v>1062754.7671000001</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" si="17"/>
-        <v>677613</v>
+        <f t="shared" si="10"/>
+        <v>848609.68149999995</v>
       </c>
       <c r="P16" s="1">
-        <f t="shared" si="17"/>
-        <v>541073</v>
+        <f t="shared" si="11"/>
+        <v>677614.83059999999</v>
       </c>
       <c r="Q16" s="1">
-        <f t="shared" si="17"/>
-        <v>432046</v>
+        <f t="shared" si="12"/>
+        <v>541075.44220000005</v>
       </c>
       <c r="R16" s="1">
-        <f t="shared" si="17"/>
-        <v>344988</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>432048.74050000001</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="14"/>
+        <v>344990.9192</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="15"/>
+        <v>275475.24890000001</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
+        <v>1367212</v>
+      </c>
+      <c r="C17">
+        <v>1361389</v>
+      </c>
+      <c r="D17">
+        <v>1572320</v>
+      </c>
+      <c r="E17">
+        <v>1836258</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="1"/>
         <v>1.2492000000000001</v>
-      </c>
-      <c r="C17">
-        <v>1367212</v>
-      </c>
-      <c r="D17">
-        <v>1361389</v>
-      </c>
-      <c r="E17">
-        <v>1572320</v>
-      </c>
-      <c r="F17">
-        <v>1836258</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
+        <v>2728601</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="3"/>
         <v>3408578</v>
       </c>
-      <c r="H17" s="1">
-        <f t="shared" si="3"/>
-        <v>4257995</v>
-      </c>
       <c r="I17" s="1">
-        <f t="shared" ref="I17:R17" si="18">IF(ROUNDDOWN(H17*$B17,0)&gt;2*SUM($D17:$E17),H17,ROUNDDOWN(H17*$B17,0))</f>
-        <v>5319087</v>
+        <f t="shared" si="4"/>
+        <v>4257995.6376</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="18"/>
-        <v>5319087</v>
+        <f t="shared" si="5"/>
+        <v>5319088.1503999997</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="18"/>
-        <v>5319087</v>
+        <f t="shared" si="6"/>
+        <v>6644604.9173999997</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="18"/>
-        <v>5319087</v>
+        <f t="shared" si="7"/>
+        <v>6644604.9173999997</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="18"/>
-        <v>5319087</v>
+        <f t="shared" si="8"/>
+        <v>6644604.9173999997</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="18"/>
-        <v>5319087</v>
+        <f t="shared" si="9"/>
+        <v>6644604.9173999997</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="18"/>
-        <v>5319087</v>
+        <f t="shared" si="10"/>
+        <v>6644604.9173999997</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" si="18"/>
-        <v>5319087</v>
+        <f t="shared" si="11"/>
+        <v>6644604.9173999997</v>
       </c>
       <c r="Q17" s="1">
-        <f t="shared" si="18"/>
-        <v>5319087</v>
+        <f t="shared" si="12"/>
+        <v>6644604.9173999997</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" si="18"/>
-        <v>5319087</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>6644604.9173999997</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="14"/>
+        <v>6644604.9173999997</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="15"/>
+        <v>6644604.9173999997</v>
+      </c>
+      <c r="U17" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
+        <v>2567464</v>
+      </c>
+      <c r="C18">
+        <v>2441857</v>
+      </c>
+      <c r="D18">
+        <v>1524132</v>
+      </c>
+      <c r="E18">
+        <v>1496810</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="1"/>
         <v>0.60299999999999998</v>
-      </c>
-      <c r="C18">
-        <v>2567464</v>
-      </c>
-      <c r="D18">
-        <v>2441857</v>
-      </c>
-      <c r="E18">
-        <v>1524132</v>
-      </c>
-      <c r="F18">
-        <v>1496810</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
+        <v>5009321</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="3"/>
         <v>3020942</v>
       </c>
-      <c r="H18" s="1">
-        <f t="shared" si="3"/>
-        <v>1821628</v>
-      </c>
       <c r="I18" s="1">
-        <f t="shared" ref="I18:R18" si="19">IF(ROUNDDOWN(H18*$B18,0)&gt;2*SUM($D18:$E18),H18,ROUNDDOWN(H18*$B18,0))</f>
-        <v>1098441</v>
+        <f t="shared" si="4"/>
+        <v>1821628.0260000001</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="19"/>
-        <v>662359</v>
+        <f t="shared" si="5"/>
+        <v>1098441.6995999999</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="19"/>
-        <v>399402</v>
+        <f t="shared" si="6"/>
+        <v>662360.34479999996</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="19"/>
-        <v>240839</v>
+        <f t="shared" si="7"/>
+        <v>399403.2879</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="19"/>
-        <v>145225</v>
+        <f t="shared" si="8"/>
+        <v>240840.1826</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="19"/>
-        <v>87570</v>
+        <f t="shared" si="9"/>
+        <v>145226.63010000001</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="19"/>
-        <v>52804</v>
+        <f t="shared" si="10"/>
+        <v>87571.657900000006</v>
       </c>
       <c r="P18" s="1">
-        <f t="shared" si="19"/>
-        <v>31840</v>
+        <f t="shared" si="11"/>
+        <v>52805.709699999999</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" si="19"/>
-        <v>19199</v>
+        <f t="shared" si="12"/>
+        <v>31841.8429</v>
       </c>
       <c r="R18" s="1">
-        <f t="shared" si="19"/>
-        <v>11576</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>19200.6312</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="14"/>
+        <v>11577.980600000001</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="15"/>
+        <v>6981.5222999999996</v>
+      </c>
+      <c r="U18" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
+        <v>1334060</v>
+      </c>
+      <c r="C19">
+        <v>1395231</v>
+      </c>
+      <c r="D19">
+        <v>578655</v>
+      </c>
+      <c r="E19">
+        <v>677663</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="1"/>
         <v>0.46029999999999999</v>
-      </c>
-      <c r="C19">
-        <v>1334060</v>
-      </c>
-      <c r="D19">
-        <v>1395231</v>
-      </c>
-      <c r="E19">
-        <v>578655</v>
-      </c>
-      <c r="F19">
-        <v>677663</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
+        <v>2729291</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="3"/>
         <v>1256318</v>
       </c>
-      <c r="H19" s="1">
-        <f t="shared" si="3"/>
-        <v>578283</v>
-      </c>
       <c r="I19" s="1">
-        <f t="shared" ref="I19:R19" si="20">IF(ROUNDDOWN(H19*$B19,0)&gt;2*SUM($D19:$E19),H19,ROUNDDOWN(H19*$B19,0))</f>
-        <v>266183</v>
+        <f t="shared" si="4"/>
+        <v>578283.17539999995</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="20"/>
-        <v>122524</v>
+        <f t="shared" si="5"/>
+        <v>266183.74560000002</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="20"/>
-        <v>56397</v>
+        <f t="shared" si="6"/>
+        <v>122524.378</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="20"/>
-        <v>25959</v>
+        <f t="shared" si="7"/>
+        <v>56397.971100000002</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="20"/>
-        <v>11948</v>
+        <f t="shared" si="8"/>
+        <v>25959.986000000001</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="20"/>
-        <v>5499</v>
+        <f t="shared" si="9"/>
+        <v>11949.3815</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="20"/>
-        <v>2531</v>
+        <f t="shared" si="10"/>
+        <v>5500.3002999999999</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" si="20"/>
-        <v>1165</v>
+        <f t="shared" si="11"/>
+        <v>2531.7882</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" si="20"/>
-        <v>536</v>
+        <f t="shared" si="12"/>
+        <v>1165.3821</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" si="20"/>
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>536.42529999999999</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="14"/>
+        <v>246.91650000000001</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="15"/>
+        <v>113.65560000000001</v>
+      </c>
+      <c r="U19" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
+        <v>2976209</v>
+      </c>
+      <c r="C20">
+        <v>3199665</v>
+      </c>
+      <c r="D20">
+        <v>1666477</v>
+      </c>
+      <c r="E20">
+        <v>1759240</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="1"/>
         <v>0.55459999999999998</v>
-      </c>
-      <c r="C20">
-        <v>2976209</v>
-      </c>
-      <c r="D20">
-        <v>3199665</v>
-      </c>
-      <c r="E20">
-        <v>1666477</v>
-      </c>
-      <c r="F20">
-        <v>1759240</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
+        <v>6175874</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="3"/>
         <v>3425717</v>
       </c>
-      <c r="H20" s="1">
-        <f t="shared" si="3"/>
-        <v>1899902</v>
-      </c>
       <c r="I20" s="1">
-        <f t="shared" ref="I20:R20" si="21">IF(ROUNDDOWN(H20*$B20,0)&gt;2*SUM($D20:$E20),H20,ROUNDDOWN(H20*$B20,0))</f>
-        <v>1053685</v>
+        <f t="shared" si="4"/>
+        <v>1899902.6481999999</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="21"/>
-        <v>584373</v>
+        <f t="shared" si="5"/>
+        <v>1053686.0086000001</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="21"/>
-        <v>324093</v>
+        <f t="shared" si="6"/>
+        <v>584374.26029999997</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="21"/>
-        <v>179741</v>
+        <f t="shared" si="7"/>
+        <v>324093.96470000001</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="21"/>
-        <v>99684</v>
+        <f t="shared" si="8"/>
+        <v>179742.5128</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="21"/>
-        <v>55284</v>
+        <f t="shared" si="9"/>
+        <v>99685.197499999995</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="21"/>
-        <v>30660</v>
+        <f t="shared" si="10"/>
+        <v>55285.410499999998</v>
       </c>
       <c r="P20" s="1">
-        <f t="shared" si="21"/>
-        <v>17004</v>
+        <f t="shared" si="11"/>
+        <v>30661.2886</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" si="21"/>
-        <v>9430</v>
+        <f t="shared" si="12"/>
+        <v>17004.750599999999</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" si="21"/>
-        <v>5229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>9430.8346000000001</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="14"/>
+        <v>5230.3407999999999</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" si="15"/>
+        <v>2900.7469999999998</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
+        <v>1443351</v>
+      </c>
+      <c r="C21">
+        <v>1565539</v>
+      </c>
+      <c r="D21">
+        <v>1355276</v>
+      </c>
+      <c r="E21">
+        <v>1423414</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="1"/>
         <v>0.9234</v>
-      </c>
-      <c r="C21">
-        <v>1443351</v>
-      </c>
-      <c r="D21">
-        <v>1565539</v>
-      </c>
-      <c r="E21">
-        <v>1355276</v>
-      </c>
-      <c r="F21">
-        <v>1423414</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
+        <v>3008890</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="3"/>
         <v>2778690</v>
       </c>
-      <c r="H21" s="1">
-        <f t="shared" si="3"/>
-        <v>2565842</v>
-      </c>
       <c r="I21" s="1">
-        <f t="shared" ref="I21:R21" si="22">IF(ROUNDDOWN(H21*$B21,0)&gt;2*SUM($D21:$E21),H21,ROUNDDOWN(H21*$B21,0))</f>
-        <v>2369298</v>
+        <f t="shared" si="4"/>
+        <v>2565842.3459999999</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="22"/>
-        <v>2187809</v>
+        <f t="shared" si="5"/>
+        <v>2369298.8221999998</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="22"/>
-        <v>2020222</v>
+        <f t="shared" si="6"/>
+        <v>2187810.5323999999</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="22"/>
-        <v>1865472</v>
+        <f t="shared" si="7"/>
+        <v>2020224.2456</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="22"/>
-        <v>1722576</v>
+        <f t="shared" si="8"/>
+        <v>1865475.0682999999</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="22"/>
-        <v>1590626</v>
+        <f t="shared" si="9"/>
+        <v>1722579.6780000001</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="22"/>
-        <v>1468784</v>
+        <f t="shared" si="10"/>
+        <v>1590630.0745999999</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" si="22"/>
-        <v>1356275</v>
+        <f t="shared" si="11"/>
+        <v>1468787.8108000001</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="22"/>
-        <v>1252384</v>
+        <f t="shared" si="12"/>
+        <v>1356278.6643999999</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" si="22"/>
-        <v>1156451</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>1252387.7187000001</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="14"/>
+        <v>1156454.8193999999</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="15"/>
+        <v>1067870.3802</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
+        <v>2486640</v>
+      </c>
+      <c r="C22">
+        <v>2265936</v>
+      </c>
+      <c r="D22">
+        <v>297424</v>
+      </c>
+      <c r="E22">
+        <v>274759</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="1"/>
         <v>0.1203</v>
-      </c>
-      <c r="C22">
-        <v>2486640</v>
-      </c>
-      <c r="D22">
-        <v>2265936</v>
-      </c>
-      <c r="E22">
-        <v>297424</v>
-      </c>
-      <c r="F22">
-        <v>274759</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
+        <v>4752576</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="3"/>
         <v>572183</v>
       </c>
-      <c r="H22" s="1">
-        <f t="shared" si="3"/>
-        <v>68833</v>
-      </c>
       <c r="I22" s="1">
-        <f t="shared" ref="I22:R22" si="23">IF(ROUNDDOWN(H22*$B22,0)&gt;2*SUM($D22:$E22),H22,ROUNDDOWN(H22*$B22,0))</f>
-        <v>8280</v>
+        <f t="shared" si="4"/>
+        <v>68833.6149</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="23"/>
-        <v>996</v>
+        <f t="shared" si="5"/>
+        <v>8280.6838000000007</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="23"/>
-        <v>119</v>
+        <f t="shared" si="6"/>
+        <v>996.1662</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="23"/>
-        <v>14</v>
+        <f t="shared" si="7"/>
+        <v>119.8387</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>14.416499999999999</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1.7343</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>0.20860000000000001</v>
       </c>
       <c r="P22" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
+        <v>685438</v>
+      </c>
+      <c r="C23">
+        <v>749124</v>
+      </c>
+      <c r="D23">
+        <v>2697677</v>
+      </c>
+      <c r="E23">
+        <v>2821550</v>
+      </c>
+      <c r="F23">
         <f t="shared" si="1"/>
         <v>3.8473000000000002</v>
-      </c>
-      <c r="C23">
-        <v>685438</v>
-      </c>
-      <c r="D23">
-        <v>749124</v>
-      </c>
-      <c r="E23">
-        <v>2697677</v>
-      </c>
-      <c r="F23">
-        <v>2821550</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
+        <v>1434562</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="3"/>
         <v>5519227</v>
       </c>
-      <c r="H23" s="1">
-        <f t="shared" si="3"/>
-        <v>21234122</v>
-      </c>
       <c r="I23" s="1">
-        <f t="shared" ref="I23:R23" si="24">IF(ROUNDDOWN(H23*$B23,0)&gt;2*SUM($D23:$E23),H23,ROUNDDOWN(H23*$B23,0))</f>
-        <v>21234122</v>
+        <f t="shared" si="4"/>
+        <v>5519227</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="24"/>
-        <v>21234122</v>
+        <f t="shared" si="5"/>
+        <v>5519227</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="24"/>
-        <v>21234122</v>
+        <f t="shared" si="6"/>
+        <v>5519227</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="24"/>
-        <v>21234122</v>
+        <f t="shared" si="7"/>
+        <v>5519227</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="24"/>
-        <v>21234122</v>
+        <f t="shared" si="8"/>
+        <v>5519227</v>
       </c>
       <c r="N23" s="1">
-        <f t="shared" si="24"/>
-        <v>21234122</v>
+        <f t="shared" si="9"/>
+        <v>5519227</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="24"/>
-        <v>21234122</v>
+        <f t="shared" si="10"/>
+        <v>5519227</v>
       </c>
       <c r="P23" s="1">
-        <f t="shared" si="24"/>
-        <v>21234122</v>
+        <f t="shared" si="11"/>
+        <v>5519227</v>
       </c>
       <c r="Q23" s="1">
-        <f t="shared" si="24"/>
-        <v>21234122</v>
+        <f t="shared" si="12"/>
+        <v>5519227</v>
       </c>
       <c r="R23" s="1">
-        <f t="shared" si="24"/>
-        <v>21234122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>5519227</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="14"/>
+        <v>5519227</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="15"/>
+        <v>5519227</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
+        <v>2166753</v>
+      </c>
+      <c r="C24">
+        <v>2338698</v>
+      </c>
+      <c r="D24">
+        <v>1681433</v>
+      </c>
+      <c r="E24">
+        <v>1592443</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="1"/>
         <v>0.72660000000000002</v>
-      </c>
-      <c r="C24">
-        <v>2166753</v>
-      </c>
-      <c r="D24">
-        <v>2338698</v>
-      </c>
-      <c r="E24">
-        <v>1681433</v>
-      </c>
-      <c r="F24">
-        <v>1592443</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
+        <v>4505451</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="3"/>
         <v>3273876</v>
       </c>
-      <c r="H24" s="1">
-        <f t="shared" si="3"/>
-        <v>2378798</v>
-      </c>
       <c r="I24" s="1">
-        <f t="shared" ref="I24:R24" si="25">IF(ROUNDDOWN(H24*$B24,0)&gt;2*SUM($D24:$E24),H24,ROUNDDOWN(H24*$B24,0))</f>
-        <v>1728434</v>
+        <f t="shared" si="4"/>
+        <v>2378798.3015999999</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="25"/>
-        <v>1255880</v>
+        <f t="shared" si="5"/>
+        <v>1728434.8459000001</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="25"/>
-        <v>912522</v>
+        <f t="shared" si="6"/>
+        <v>1255880.7590000001</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="25"/>
-        <v>663038</v>
+        <f t="shared" si="7"/>
+        <v>912522.95940000005</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="25"/>
-        <v>481763</v>
+        <f t="shared" si="8"/>
+        <v>663039.18229999999</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" si="25"/>
-        <v>350048</v>
+        <f t="shared" si="9"/>
+        <v>481764.26980000001</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="25"/>
-        <v>254344</v>
+        <f t="shared" si="10"/>
+        <v>350049.91840000002</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" si="25"/>
-        <v>184806</v>
+        <f t="shared" si="11"/>
+        <v>254346.27069999999</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" si="25"/>
-        <v>134280</v>
+        <f t="shared" si="12"/>
+        <v>184808.00020000001</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" si="25"/>
-        <v>97567</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>134281.49290000001</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="14"/>
+        <v>97568.932700000005</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="15"/>
+        <v>70893.5864</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
+        <v>643177</v>
+      </c>
+      <c r="C25">
+        <v>684187</v>
+      </c>
+      <c r="D25">
+        <v>796213</v>
+      </c>
+      <c r="E25">
+        <v>867904</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="1"/>
         <v>1.2537</v>
-      </c>
-      <c r="C25">
-        <v>643177</v>
-      </c>
-      <c r="D25">
-        <v>684187</v>
-      </c>
-      <c r="E25">
-        <v>796213</v>
-      </c>
-      <c r="F25">
-        <v>867904</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
+        <v>1327364</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="3"/>
         <v>1664117</v>
       </c>
-      <c r="H25" s="1">
-        <f t="shared" si="3"/>
-        <v>2086303</v>
-      </c>
       <c r="I25" s="1">
-        <f t="shared" ref="I25:R25" si="26">IF(ROUNDDOWN(H25*$B25,0)&gt;2*SUM($D25:$E25),H25,ROUNDDOWN(H25*$B25,0))</f>
-        <v>2615598</v>
+        <f t="shared" si="4"/>
+        <v>2086303.4828999999</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="26"/>
-        <v>2615598</v>
+        <f t="shared" si="5"/>
+        <v>2615598.6765000001</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="26"/>
-        <v>2615598</v>
+        <f t="shared" si="6"/>
+        <v>3279176.0606999998</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="26"/>
-        <v>2615598</v>
+        <f t="shared" si="7"/>
+        <v>3279176.0606999998</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="26"/>
-        <v>2615598</v>
+        <f t="shared" si="8"/>
+        <v>3279176.0606999998</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="26"/>
-        <v>2615598</v>
+        <f t="shared" si="9"/>
+        <v>3279176.0606999998</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="26"/>
-        <v>2615598</v>
+        <f t="shared" si="10"/>
+        <v>3279176.0606999998</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" si="26"/>
-        <v>2615598</v>
+        <f t="shared" si="11"/>
+        <v>3279176.0606999998</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" si="26"/>
-        <v>2615598</v>
+        <f t="shared" si="12"/>
+        <v>3279176.0606999998</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="26"/>
-        <v>2615598</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>3279176.0606999998</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="14"/>
+        <v>3279176.0606999998</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="15"/>
+        <v>3279176.0606999998</v>
+      </c>
+      <c r="U25" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
+        <v>450192</v>
+      </c>
+      <c r="C26">
+        <v>434755</v>
+      </c>
+      <c r="D26">
+        <v>1656446</v>
+      </c>
+      <c r="E26">
+        <v>1691000</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="1"/>
         <v>3.7826</v>
-      </c>
-      <c r="C26">
-        <v>450192</v>
-      </c>
-      <c r="D26">
-        <v>434755</v>
-      </c>
-      <c r="E26">
-        <v>1656446</v>
-      </c>
-      <c r="F26">
-        <v>1691000</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
+        <v>884947</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="3"/>
         <v>3347446</v>
       </c>
-      <c r="H26" s="1">
-        <f t="shared" si="3"/>
-        <v>12662049</v>
-      </c>
       <c r="I26" s="1">
-        <f t="shared" ref="I26:R26" si="27">IF(ROUNDDOWN(H26*$B26,0)&gt;2*SUM($D26:$E26),H26,ROUNDDOWN(H26*$B26,0))</f>
-        <v>12662049</v>
+        <f t="shared" si="4"/>
+        <v>3347446</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="27"/>
-        <v>12662049</v>
+        <f t="shared" si="5"/>
+        <v>3347446</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="27"/>
-        <v>12662049</v>
+        <f t="shared" si="6"/>
+        <v>3347446</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="27"/>
-        <v>12662049</v>
+        <f t="shared" si="7"/>
+        <v>3347446</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="27"/>
-        <v>12662049</v>
+        <f t="shared" si="8"/>
+        <v>3347446</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="27"/>
-        <v>12662049</v>
+        <f t="shared" si="9"/>
+        <v>3347446</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="27"/>
-        <v>12662049</v>
+        <f t="shared" si="10"/>
+        <v>3347446</v>
       </c>
       <c r="P26" s="1">
-        <f t="shared" si="27"/>
-        <v>12662049</v>
+        <f t="shared" si="11"/>
+        <v>3347446</v>
       </c>
       <c r="Q26" s="1">
-        <f t="shared" si="27"/>
-        <v>12662049</v>
+        <f t="shared" si="12"/>
+        <v>3347446</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="27"/>
-        <v>12662049</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>3347446</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="14"/>
+        <v>3347446</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="15"/>
+        <v>3347446</v>
+      </c>
+      <c r="U26" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
+        <v>1037774</v>
+      </c>
+      <c r="C27">
+        <v>1113789</v>
+      </c>
+      <c r="D27">
+        <v>877464</v>
+      </c>
+      <c r="E27">
+        <v>990837</v>
+      </c>
+      <c r="F27">
         <f t="shared" si="1"/>
         <v>0.86829999999999996</v>
-      </c>
-      <c r="C27">
-        <v>1037774</v>
-      </c>
-      <c r="D27">
-        <v>1113789</v>
-      </c>
-      <c r="E27">
-        <v>877464</v>
-      </c>
-      <c r="F27">
-        <v>990837</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
+        <v>2151563</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="3"/>
         <v>1868301</v>
       </c>
-      <c r="H27" s="1">
-        <f t="shared" si="3"/>
-        <v>1622245</v>
-      </c>
       <c r="I27" s="1">
-        <f t="shared" ref="I27:R27" si="28">IF(ROUNDDOWN(H27*$B27,0)&gt;2*SUM($D27:$E27),H27,ROUNDDOWN(H27*$B27,0))</f>
-        <v>1408595</v>
+        <f t="shared" si="4"/>
+        <v>1622245.7583000001</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="28"/>
-        <v>1223083</v>
+        <f t="shared" si="5"/>
+        <v>1408595.9919</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="28"/>
-        <v>1062002</v>
+        <f t="shared" si="6"/>
+        <v>1223083.8997</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="28"/>
-        <v>922136</v>
+        <f t="shared" si="7"/>
+        <v>1062003.7501000001</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="28"/>
-        <v>800690</v>
+        <f t="shared" si="8"/>
+        <v>922137.85620000004</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="28"/>
-        <v>695239</v>
+        <f t="shared" si="9"/>
+        <v>800692.30050000001</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="28"/>
-        <v>603676</v>
+        <f t="shared" si="10"/>
+        <v>695241.12450000003</v>
       </c>
       <c r="P27" s="1">
-        <f t="shared" si="28"/>
-        <v>524171</v>
+        <f t="shared" si="11"/>
+        <v>603677.86840000004</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" si="28"/>
-        <v>455137</v>
+        <f t="shared" si="12"/>
+        <v>524173.49310000002</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="28"/>
-        <v>395195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>455139.84399999998</v>
+      </c>
+      <c r="S27" s="1">
+        <f t="shared" si="14"/>
+        <v>395197.9265</v>
+      </c>
+      <c r="T27" s="1">
+        <f t="shared" si="15"/>
+        <v>343150.35950000002</v>
+      </c>
+      <c r="U27" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
+        <v>2351213</v>
+      </c>
+      <c r="C28">
+        <v>2358482</v>
+      </c>
+      <c r="D28">
+        <v>1098384</v>
+      </c>
+      <c r="E28">
+        <v>1121488</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="1"/>
         <v>0.4713</v>
-      </c>
-      <c r="C28">
-        <v>2351213</v>
-      </c>
-      <c r="D28">
-        <v>2358482</v>
-      </c>
-      <c r="E28">
-        <v>1098384</v>
-      </c>
-      <c r="F28">
-        <v>1121488</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
+        <v>4709695</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="3"/>
         <v>2219872</v>
       </c>
-      <c r="H28" s="1">
-        <f t="shared" si="3"/>
-        <v>1046225</v>
-      </c>
       <c r="I28" s="1">
-        <f t="shared" ref="I28:R28" si="29">IF(ROUNDDOWN(H28*$B28,0)&gt;2*SUM($D28:$E28),H28,ROUNDDOWN(H28*$B28,0))</f>
-        <v>493085</v>
+        <f t="shared" si="4"/>
+        <v>1046225.6736</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="29"/>
-        <v>232390</v>
+        <f t="shared" si="5"/>
+        <v>493086.15990000003</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="29"/>
-        <v>109525</v>
+        <f t="shared" si="6"/>
+        <v>232391.50709999999</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="29"/>
-        <v>51619</v>
+        <f t="shared" si="7"/>
+        <v>109526.11719999999</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="29"/>
-        <v>24328</v>
+        <f t="shared" si="8"/>
+        <v>51619.659</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="29"/>
-        <v>11465</v>
+        <f t="shared" si="9"/>
+        <v>24328.3452</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="29"/>
-        <v>5403</v>
+        <f t="shared" si="10"/>
+        <v>11465.949000000001</v>
       </c>
       <c r="P28" s="1">
-        <f t="shared" si="29"/>
-        <v>2546</v>
+        <f t="shared" si="11"/>
+        <v>5403.9017000000003</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" si="29"/>
-        <v>1199</v>
+        <f t="shared" si="12"/>
+        <v>2546.8588</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="29"/>
-        <v>565</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>1200.3344999999999</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="14"/>
+        <v>565.71759999999995</v>
+      </c>
+      <c r="T28" s="1">
+        <f t="shared" si="15"/>
+        <v>266.62270000000001</v>
+      </c>
+      <c r="U28" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
+        <v>2613354</v>
+      </c>
+      <c r="C29">
+        <v>2837241</v>
+      </c>
+      <c r="D29">
+        <v>431144</v>
+      </c>
+      <c r="E29">
+        <v>434113</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="1"/>
         <v>0.15870000000000001</v>
-      </c>
-      <c r="C29">
-        <v>2613354</v>
-      </c>
-      <c r="D29">
-        <v>2837241</v>
-      </c>
-      <c r="E29">
-        <v>431144</v>
-      </c>
-      <c r="F29">
-        <v>434113</v>
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
+        <v>5450595</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="3"/>
         <v>865257</v>
       </c>
-      <c r="H29" s="1">
-        <f t="shared" si="3"/>
-        <v>137316</v>
-      </c>
       <c r="I29" s="1">
-        <f t="shared" ref="I29:R29" si="30">IF(ROUNDDOWN(H29*$B29,0)&gt;2*SUM($D29:$E29),H29,ROUNDDOWN(H29*$B29,0))</f>
-        <v>21792</v>
+        <f t="shared" si="4"/>
+        <v>137316.28589999999</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="30"/>
-        <v>3458</v>
+        <f t="shared" si="5"/>
+        <v>21792.094499999999</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="30"/>
-        <v>548</v>
+        <f t="shared" si="6"/>
+        <v>3458.4052999999999</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="30"/>
-        <v>86</v>
+        <f t="shared" si="7"/>
+        <v>548.84889999999996</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="30"/>
-        <v>13</v>
+        <f t="shared" si="8"/>
+        <v>87.1023</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="30"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>13.8231</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>2.1937000000000002</v>
       </c>
       <c r="P29" s="1">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0.34810000000000002</v>
       </c>
       <c r="Q29" s="1">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>5.5199999999999999E-2</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="14"/>
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="T29" s="1">
+        <f t="shared" si="15"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="U29" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
+        <v>1859691</v>
+      </c>
+      <c r="C30">
+        <v>1844250</v>
+      </c>
+      <c r="D30">
+        <v>1460134</v>
+      </c>
+      <c r="E30">
+        <v>1585258</v>
+      </c>
+      <c r="F30">
         <f t="shared" si="1"/>
         <v>0.82220000000000004</v>
-      </c>
-      <c r="C30">
-        <v>1859691</v>
-      </c>
-      <c r="D30">
-        <v>1844250</v>
-      </c>
-      <c r="E30">
-        <v>1460134</v>
-      </c>
-      <c r="F30">
-        <v>1585258</v>
       </c>
       <c r="G30">
         <f t="shared" si="2"/>
+        <v>3703941</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="3"/>
         <v>3045392</v>
       </c>
-      <c r="H30" s="1">
-        <f t="shared" si="3"/>
-        <v>2503921</v>
-      </c>
       <c r="I30" s="1">
-        <f t="shared" ref="I30:R30" si="31">IF(ROUNDDOWN(H30*$B30,0)&gt;2*SUM($D30:$E30),H30,ROUNDDOWN(H30*$B30,0))</f>
-        <v>2058723</v>
+        <f t="shared" si="4"/>
+        <v>2503921.3023999999</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="31"/>
-        <v>1692682</v>
+        <f t="shared" si="5"/>
+        <v>2058724.0948000001</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="31"/>
-        <v>1391723</v>
+        <f t="shared" si="6"/>
+        <v>1692682.9506999999</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" si="31"/>
-        <v>1144274</v>
+        <f t="shared" si="7"/>
+        <v>1391723.922</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="31"/>
-        <v>940822</v>
+        <f t="shared" si="8"/>
+        <v>1144275.4086</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" si="31"/>
-        <v>773543</v>
+        <f t="shared" si="9"/>
+        <v>940823.24089999998</v>
       </c>
       <c r="O30" s="1">
-        <f t="shared" si="31"/>
-        <v>636007</v>
+        <f t="shared" si="10"/>
+        <v>773544.86860000005</v>
       </c>
       <c r="P30" s="1">
-        <f t="shared" si="31"/>
-        <v>522924</v>
+        <f t="shared" si="11"/>
+        <v>636008.59089999995</v>
       </c>
       <c r="Q30" s="1">
-        <f t="shared" si="31"/>
-        <v>429948</v>
+        <f t="shared" si="12"/>
+        <v>522926.2634</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" si="31"/>
-        <v>353503</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>429949.97369999997</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="14"/>
+        <v>353504.86829999997</v>
+      </c>
+      <c r="T30" s="1">
+        <f t="shared" si="15"/>
+        <v>290651.70270000002</v>
+      </c>
+      <c r="U30" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31">
+        <v>2478386</v>
+      </c>
+      <c r="C31">
+        <v>2562144</v>
+      </c>
+      <c r="D31">
+        <v>30035</v>
+      </c>
+      <c r="E31">
+        <v>29396</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="1"/>
         <v>1.17E-2</v>
-      </c>
-      <c r="C31">
-        <v>2478386</v>
-      </c>
-      <c r="D31">
-        <v>2562144</v>
-      </c>
-      <c r="E31">
-        <v>30035</v>
-      </c>
-      <c r="F31">
-        <v>29396</v>
       </c>
       <c r="G31">
         <f t="shared" si="2"/>
+        <v>5040530</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="3"/>
         <v>59431</v>
       </c>
-      <c r="H31" s="1">
-        <f t="shared" si="3"/>
-        <v>695</v>
-      </c>
       <c r="I31" s="1">
-        <f t="shared" ref="I31:R31" si="32">IF(ROUNDDOWN(H31*$B31,0)&gt;2*SUM($D31:$E31),H31,ROUNDDOWN(H31*$B31,0))</f>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>695.34270000000004</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>8.1355000000000004</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>9.5100000000000004E-2</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O31" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P31" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q31" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32">
+        <v>1938122</v>
+      </c>
+      <c r="C32">
+        <v>1816647</v>
+      </c>
+      <c r="D32">
+        <v>1602356</v>
+      </c>
+      <c r="E32">
+        <v>1875221</v>
+      </c>
+      <c r="F32">
         <f t="shared" si="1"/>
         <v>0.92610000000000003</v>
-      </c>
-      <c r="C32">
-        <v>1938122</v>
-      </c>
-      <c r="D32">
-        <v>1816647</v>
-      </c>
-      <c r="E32">
-        <v>1602356</v>
-      </c>
-      <c r="F32">
-        <v>1875221</v>
       </c>
       <c r="G32">
         <f t="shared" si="2"/>
+        <v>3754769</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="3"/>
         <v>3477577</v>
       </c>
-      <c r="H32" s="1">
-        <f t="shared" si="3"/>
-        <v>3220584</v>
-      </c>
       <c r="I32" s="1">
-        <f t="shared" ref="I32:R32" si="33">IF(ROUNDDOWN(H32*$B32,0)&gt;2*SUM($D32:$E32),H32,ROUNDDOWN(H32*$B32,0))</f>
-        <v>2982582</v>
+        <f t="shared" si="4"/>
+        <v>3220584.0597000001</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="33"/>
-        <v>2762169</v>
+        <f t="shared" si="5"/>
+        <v>2982582.8975999998</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="33"/>
-        <v>2558044</v>
+        <f t="shared" si="6"/>
+        <v>2762170.0214</v>
       </c>
       <c r="L32" s="1">
-        <f t="shared" si="33"/>
-        <v>2369004</v>
+        <f t="shared" si="7"/>
+        <v>2558045.6568</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" si="33"/>
-        <v>2193934</v>
+        <f t="shared" si="8"/>
+        <v>2369006.0827000001</v>
       </c>
       <c r="N32" s="1">
-        <f t="shared" si="33"/>
-        <v>2031802</v>
+        <f t="shared" si="9"/>
+        <v>2193936.5331000001</v>
       </c>
       <c r="O32" s="1">
-        <f t="shared" si="33"/>
-        <v>1881651</v>
+        <f t="shared" si="10"/>
+        <v>2031804.6233000001</v>
       </c>
       <c r="P32" s="1">
-        <f t="shared" si="33"/>
-        <v>1742596</v>
+        <f t="shared" si="11"/>
+        <v>1881654.2616000001</v>
       </c>
       <c r="Q32" s="1">
-        <f t="shared" si="33"/>
-        <v>1613818</v>
+        <f t="shared" si="12"/>
+        <v>1742600.0116000001</v>
       </c>
       <c r="R32" s="1">
-        <f t="shared" si="33"/>
-        <v>1494556</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>1613821.8707000001</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" si="14"/>
+        <v>1494560.4343999999</v>
+      </c>
+      <c r="T32" s="1">
+        <f t="shared" si="15"/>
+        <v>1384112.4182</v>
+      </c>
+      <c r="U32" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33">
+        <v>992523</v>
+      </c>
+      <c r="C33">
+        <v>1028501</v>
+      </c>
+      <c r="D33">
+        <v>1995446</v>
+      </c>
+      <c r="E33">
+        <v>1860524</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="1"/>
         <v>1.9078999999999999</v>
-      </c>
-      <c r="C33">
-        <v>992523</v>
-      </c>
-      <c r="D33">
-        <v>1028501</v>
-      </c>
-      <c r="E33">
-        <v>1995446</v>
-      </c>
-      <c r="F33">
-        <v>1860524</v>
       </c>
       <c r="G33">
         <f t="shared" si="2"/>
+        <v>2021024</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="3"/>
         <v>3855970</v>
       </c>
-      <c r="H33" s="1">
-        <f t="shared" si="3"/>
-        <v>7356805</v>
-      </c>
       <c r="I33" s="1">
-        <f t="shared" ref="I33:R33" si="34">IF(ROUNDDOWN(H33*$B33,0)&gt;2*SUM($D33:$E33),H33,ROUNDDOWN(H33*$B33,0))</f>
-        <v>7356805</v>
+        <f t="shared" si="4"/>
+        <v>7356805.1629999997</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="34"/>
-        <v>7356805</v>
+        <f t="shared" si="5"/>
+        <v>7356805.1629999997</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="34"/>
-        <v>7356805</v>
+        <f t="shared" si="6"/>
+        <v>7356805.1629999997</v>
       </c>
       <c r="L33" s="1">
-        <f t="shared" si="34"/>
-        <v>7356805</v>
+        <f t="shared" si="7"/>
+        <v>7356805.1629999997</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" si="34"/>
-        <v>7356805</v>
+        <f t="shared" si="8"/>
+        <v>7356805.1629999997</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" si="34"/>
-        <v>7356805</v>
+        <f t="shared" si="9"/>
+        <v>7356805.1629999997</v>
       </c>
       <c r="O33" s="1">
-        <f t="shared" si="34"/>
-        <v>7356805</v>
+        <f t="shared" si="10"/>
+        <v>7356805.1629999997</v>
       </c>
       <c r="P33" s="1">
-        <f t="shared" si="34"/>
-        <v>7356805</v>
+        <f t="shared" si="11"/>
+        <v>7356805.1629999997</v>
       </c>
       <c r="Q33" s="1">
-        <f t="shared" si="34"/>
-        <v>7356805</v>
+        <f t="shared" si="12"/>
+        <v>7356805.1629999997</v>
       </c>
       <c r="R33" s="1">
-        <f t="shared" si="34"/>
-        <v>7356805</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>7356805.1629999997</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" si="14"/>
+        <v>7356805.1629999997</v>
+      </c>
+      <c r="T33" s="1">
+        <f t="shared" si="15"/>
+        <v>7356805.1629999997</v>
+      </c>
+      <c r="U33" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34">
+        <v>2966291</v>
+      </c>
+      <c r="C34">
+        <v>2889963</v>
+      </c>
+      <c r="D34">
+        <v>462453</v>
+      </c>
+      <c r="E34">
+        <v>486354</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="1"/>
         <v>0.16200000000000001</v>
-      </c>
-      <c r="C34">
-        <v>2966291</v>
-      </c>
-      <c r="D34">
-        <v>2889963</v>
-      </c>
-      <c r="E34">
-        <v>462453</v>
-      </c>
-      <c r="F34">
-        <v>486354</v>
       </c>
       <c r="G34">
         <f t="shared" si="2"/>
+        <v>5856254</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="3"/>
         <v>948807</v>
       </c>
-      <c r="H34" s="1">
-        <f t="shared" si="3"/>
-        <v>153706</v>
-      </c>
       <c r="I34" s="1">
-        <f t="shared" ref="I34:R34" si="35">IF(ROUNDDOWN(H34*$B34,0)&gt;2*SUM($D34:$E34),H34,ROUNDDOWN(H34*$B34,0))</f>
-        <v>24900</v>
+        <f t="shared" si="4"/>
+        <v>153706.734</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="35"/>
-        <v>4033</v>
+        <f t="shared" si="5"/>
+        <v>24900.490900000001</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="35"/>
-        <v>653</v>
+        <f t="shared" si="6"/>
+        <v>4033.8795</v>
       </c>
       <c r="L34" s="1">
-        <f t="shared" si="35"/>
-        <v>105</v>
+        <f t="shared" si="7"/>
+        <v>653.48839999999996</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="35"/>
-        <v>17</v>
+        <f t="shared" si="8"/>
+        <v>105.8651</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" si="35"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>17.150099999999998</v>
       </c>
       <c r="O34" s="1">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>2.7783000000000002</v>
       </c>
       <c r="P34" s="1">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0.45</v>
       </c>
       <c r="Q34" s="1">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>7.2900000000000006E-2</v>
       </c>
       <c r="R34" s="1">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>1.18E-2</v>
+      </c>
+      <c r="S34" s="1">
+        <f t="shared" si="14"/>
+        <v>1.9E-3</v>
+      </c>
+      <c r="T34" s="1">
+        <f t="shared" si="15"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="U34" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35">
+        <v>76648</v>
+      </c>
+      <c r="C35">
+        <v>81385</v>
+      </c>
+      <c r="D35">
+        <v>1374708</v>
+      </c>
+      <c r="E35">
+        <v>1379567</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="1"/>
         <v>17.4284</v>
-      </c>
-      <c r="C35">
-        <v>76648</v>
-      </c>
-      <c r="D35">
-        <v>81385</v>
-      </c>
-      <c r="E35">
-        <v>1374708</v>
-      </c>
-      <c r="F35">
-        <v>1379567</v>
       </c>
       <c r="G35">
         <f t="shared" si="2"/>
+        <v>158033</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="3"/>
         <v>2754275</v>
       </c>
-      <c r="H35" s="1">
-        <f t="shared" si="3"/>
-        <v>48002606</v>
-      </c>
       <c r="I35" s="1">
-        <f t="shared" ref="I35:R35" si="36">IF(ROUNDDOWN(H35*$B35,0)&gt;2*SUM($D35:$E35),H35,ROUNDDOWN(H35*$B35,0))</f>
-        <v>48002606</v>
+        <f t="shared" si="4"/>
+        <v>2754275</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="36"/>
-        <v>48002606</v>
+        <f t="shared" si="5"/>
+        <v>2754275</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="36"/>
-        <v>48002606</v>
+        <f t="shared" si="6"/>
+        <v>2754275</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" si="36"/>
-        <v>48002606</v>
+        <f t="shared" si="7"/>
+        <v>2754275</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="36"/>
-        <v>48002606</v>
+        <f t="shared" si="8"/>
+        <v>2754275</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" si="36"/>
-        <v>48002606</v>
+        <f t="shared" si="9"/>
+        <v>2754275</v>
       </c>
       <c r="O35" s="1">
-        <f t="shared" si="36"/>
-        <v>48002606</v>
+        <f t="shared" si="10"/>
+        <v>2754275</v>
       </c>
       <c r="P35" s="1">
-        <f t="shared" si="36"/>
-        <v>48002606</v>
+        <f t="shared" si="11"/>
+        <v>2754275</v>
       </c>
       <c r="Q35" s="1">
-        <f t="shared" si="36"/>
-        <v>48002606</v>
+        <f t="shared" si="12"/>
+        <v>2754275</v>
       </c>
       <c r="R35" s="1">
-        <f t="shared" si="36"/>
-        <v>48002606</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>2754275</v>
+      </c>
+      <c r="S35" s="1">
+        <f t="shared" si="14"/>
+        <v>2754275</v>
+      </c>
+      <c r="T35" s="1">
+        <f t="shared" si="15"/>
+        <v>2754275</v>
+      </c>
+      <c r="U35" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36">
+        <v>2574432</v>
+      </c>
+      <c r="C36">
+        <v>2409710</v>
+      </c>
+      <c r="D36">
+        <v>987486</v>
+      </c>
+      <c r="E36">
+        <v>999043</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="1"/>
         <v>0.39850000000000002</v>
-      </c>
-      <c r="C36">
-        <v>2574432</v>
-      </c>
-      <c r="D36">
-        <v>2409710</v>
-      </c>
-      <c r="E36">
-        <v>987486</v>
-      </c>
-      <c r="F36">
-        <v>999043</v>
       </c>
       <c r="G36">
         <f t="shared" si="2"/>
+        <v>4984142</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="3"/>
         <v>1986529</v>
       </c>
-      <c r="H36" s="1">
-        <f t="shared" si="3"/>
-        <v>791631</v>
-      </c>
       <c r="I36" s="1">
-        <f t="shared" ref="I36:R36" si="37">IF(ROUNDDOWN(H36*$B36,0)&gt;2*SUM($D36:$E36),H36,ROUNDDOWN(H36*$B36,0))</f>
-        <v>315464</v>
+        <f t="shared" si="4"/>
+        <v>791631.80649999995</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="37"/>
-        <v>125712</v>
+        <f t="shared" si="5"/>
+        <v>315465.27480000001</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="37"/>
-        <v>50096</v>
+        <f t="shared" si="6"/>
+        <v>125712.912</v>
       </c>
       <c r="L36" s="1">
-        <f t="shared" si="37"/>
-        <v>19963</v>
+        <f t="shared" si="7"/>
+        <v>50096.595399999998</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" si="37"/>
-        <v>7955</v>
+        <f t="shared" si="8"/>
+        <v>19963.493200000001</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" si="37"/>
-        <v>3170</v>
+        <f t="shared" si="9"/>
+        <v>7955.4520000000002</v>
       </c>
       <c r="O36" s="1">
-        <f t="shared" si="37"/>
-        <v>1263</v>
+        <f t="shared" si="10"/>
+        <v>3170.2476000000001</v>
       </c>
       <c r="P36" s="1">
-        <f t="shared" si="37"/>
-        <v>503</v>
+        <f t="shared" si="11"/>
+        <v>1263.3435999999999</v>
       </c>
       <c r="Q36" s="1">
-        <f t="shared" si="37"/>
-        <v>200</v>
+        <f t="shared" si="12"/>
+        <v>503.44240000000002</v>
       </c>
       <c r="R36" s="1">
-        <f t="shared" si="37"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>200.6217</v>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" si="14"/>
+        <v>79.947699999999998</v>
+      </c>
+      <c r="T36" s="1">
+        <f t="shared" si="15"/>
+        <v>31.859100000000002</v>
+      </c>
+      <c r="U36" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37">
+        <v>1778590</v>
+      </c>
+      <c r="C37">
+        <v>1874844</v>
+      </c>
+      <c r="D37">
+        <v>111191</v>
+      </c>
+      <c r="E37">
+        <v>117846</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="1"/>
         <v>6.2600000000000003E-2</v>
-      </c>
-      <c r="C37">
-        <v>1778590</v>
-      </c>
-      <c r="D37">
-        <v>1874844</v>
-      </c>
-      <c r="E37">
-        <v>111191</v>
-      </c>
-      <c r="F37">
-        <v>117846</v>
       </c>
       <c r="G37">
         <f t="shared" si="2"/>
+        <v>3653434</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="3"/>
         <v>229037</v>
       </c>
-      <c r="H37" s="1">
-        <f t="shared" si="3"/>
-        <v>14337</v>
-      </c>
       <c r="I37" s="1">
-        <f t="shared" ref="I37:R37" si="38">IF(ROUNDDOWN(H37*$B37,0)&gt;2*SUM($D37:$E37),H37,ROUNDDOWN(H37*$B37,0))</f>
-        <v>897</v>
+        <f t="shared" si="4"/>
+        <v>14337.716200000001</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="38"/>
-        <v>56</v>
+        <f t="shared" si="5"/>
+        <v>897.54100000000005</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="38"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>56.186</v>
       </c>
       <c r="L37" s="1">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>3.5171999999999999</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.22009999999999999</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1.37E-2</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="P37" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q37" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R37" s="1">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38">
+        <v>1506541</v>
+      </c>
+      <c r="C38">
+        <v>1414887</v>
+      </c>
+      <c r="D38">
+        <v>1216612</v>
+      </c>
+      <c r="E38">
+        <v>1166775</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="1"/>
         <v>0.81579999999999997</v>
-      </c>
-      <c r="C38">
-        <v>1506541</v>
-      </c>
-      <c r="D38">
-        <v>1414887</v>
-      </c>
-      <c r="E38">
-        <v>1216612</v>
-      </c>
-      <c r="F38">
-        <v>1166775</v>
       </c>
       <c r="G38">
         <f t="shared" si="2"/>
+        <v>2921428</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="3"/>
         <v>2383387</v>
       </c>
-      <c r="H38" s="1">
-        <f t="shared" si="3"/>
-        <v>1944367</v>
-      </c>
       <c r="I38" s="1">
-        <f t="shared" ref="I38:R38" si="39">IF(ROUNDDOWN(H38*$B38,0)&gt;2*SUM($D38:$E38),H38,ROUNDDOWN(H38*$B38,0))</f>
-        <v>1586214</v>
+        <f t="shared" si="4"/>
+        <v>1944367.1146</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="39"/>
-        <v>1294033</v>
+        <f t="shared" si="5"/>
+        <v>1586214.692</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="39"/>
-        <v>1055672</v>
+        <f t="shared" si="6"/>
+        <v>1294033.9457</v>
       </c>
       <c r="L38" s="1">
-        <f t="shared" si="39"/>
-        <v>861217</v>
+        <f t="shared" si="7"/>
+        <v>1055672.8929000001</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="39"/>
-        <v>702580</v>
+        <f t="shared" si="8"/>
+        <v>861217.946</v>
       </c>
       <c r="N38" s="1">
-        <f t="shared" si="39"/>
-        <v>573164</v>
+        <f t="shared" si="9"/>
+        <v>702581.60030000005</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" si="39"/>
-        <v>467587</v>
+        <f t="shared" si="10"/>
+        <v>573166.06949999998</v>
       </c>
       <c r="P38" s="1">
-        <f t="shared" si="39"/>
-        <v>381457</v>
+        <f t="shared" si="11"/>
+        <v>467588.87939999998</v>
       </c>
       <c r="Q38" s="1">
-        <f t="shared" si="39"/>
-        <v>311192</v>
+        <f t="shared" si="12"/>
+        <v>381459.00780000002</v>
       </c>
       <c r="R38" s="1">
-        <f t="shared" si="39"/>
-        <v>253870</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>311194.2585</v>
+      </c>
+      <c r="S38" s="1">
+        <f t="shared" si="14"/>
+        <v>253872.27600000001</v>
+      </c>
+      <c r="T38" s="1">
+        <f t="shared" si="15"/>
+        <v>207109.00270000001</v>
+      </c>
+      <c r="U38" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39">
+        <v>1598886</v>
+      </c>
+      <c r="C39">
+        <v>1687917</v>
+      </c>
+      <c r="D39">
+        <v>449788</v>
+      </c>
+      <c r="E39">
+        <v>427615</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="1"/>
         <v>0.26690000000000003</v>
-      </c>
-      <c r="C39">
-        <v>1598886</v>
-      </c>
-      <c r="D39">
-        <v>1687917</v>
-      </c>
-      <c r="E39">
-        <v>449788</v>
-      </c>
-      <c r="F39">
-        <v>427615</v>
       </c>
       <c r="G39">
         <f t="shared" si="2"/>
+        <v>3286803</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="3"/>
         <v>877403</v>
       </c>
-      <c r="H39" s="1">
-        <f t="shared" si="3"/>
-        <v>234178</v>
-      </c>
       <c r="I39" s="1">
-        <f t="shared" ref="I39:R39" si="40">IF(ROUNDDOWN(H39*$B39,0)&gt;2*SUM($D39:$E39),H39,ROUNDDOWN(H39*$B39,0))</f>
-        <v>62502</v>
+        <f t="shared" si="4"/>
+        <v>234178.86069999999</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="40"/>
-        <v>16681</v>
+        <f t="shared" si="5"/>
+        <v>62502.337899999999</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="40"/>
-        <v>4452</v>
+        <f t="shared" si="6"/>
+        <v>16681.873899999999</v>
       </c>
       <c r="L39" s="1">
-        <f t="shared" si="40"/>
-        <v>1188</v>
+        <f t="shared" si="7"/>
+        <v>4452.3921</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="40"/>
-        <v>317</v>
+        <f t="shared" si="8"/>
+        <v>1188.3434</v>
       </c>
       <c r="N39" s="1">
-        <f t="shared" si="40"/>
-        <v>84</v>
+        <f t="shared" si="9"/>
+        <v>317.16879999999998</v>
       </c>
       <c r="O39" s="1">
-        <f t="shared" si="40"/>
-        <v>22</v>
+        <f t="shared" si="10"/>
+        <v>84.652299999999997</v>
       </c>
       <c r="P39" s="1">
-        <f t="shared" si="40"/>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>22.593599999999999</v>
       </c>
       <c r="Q39" s="1">
-        <f t="shared" si="40"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>6.0301999999999998</v>
       </c>
       <c r="R39" s="1">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>1.6093999999999999</v>
+      </c>
+      <c r="S39" s="1">
+        <f t="shared" si="14"/>
+        <v>0.42949999999999999</v>
+      </c>
+      <c r="T39" s="1">
+        <f t="shared" si="15"/>
+        <v>0.11459999999999999</v>
+      </c>
+      <c r="U39" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40">
+        <v>548989</v>
+      </c>
+      <c r="C40">
+        <v>514636</v>
+      </c>
+      <c r="D40">
+        <v>2770344</v>
+      </c>
+      <c r="E40">
+        <v>3187897</v>
+      </c>
+      <c r="F40">
         <f t="shared" si="1"/>
         <v>5.6017999999999999</v>
-      </c>
-      <c r="C40">
-        <v>548989</v>
-      </c>
-      <c r="D40">
-        <v>514636</v>
-      </c>
-      <c r="E40">
-        <v>2770344</v>
-      </c>
-      <c r="F40">
-        <v>3187897</v>
       </c>
       <c r="G40">
         <f t="shared" si="2"/>
+        <v>1063625</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="3"/>
         <v>5958241</v>
       </c>
-      <c r="H40" s="1">
-        <f t="shared" si="3"/>
-        <v>33376874</v>
-      </c>
       <c r="I40" s="1">
-        <f t="shared" ref="I40:R40" si="41">IF(ROUNDDOWN(H40*$B40,0)&gt;2*SUM($D40:$E40),H40,ROUNDDOWN(H40*$B40,0))</f>
-        <v>33376874</v>
+        <f t="shared" si="4"/>
+        <v>5958241</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="41"/>
-        <v>33376874</v>
+        <f t="shared" si="5"/>
+        <v>5958241</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="41"/>
-        <v>33376874</v>
+        <f t="shared" si="6"/>
+        <v>5958241</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" si="41"/>
-        <v>33376874</v>
+        <f t="shared" si="7"/>
+        <v>5958241</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="41"/>
-        <v>33376874</v>
+        <f t="shared" si="8"/>
+        <v>5958241</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" si="41"/>
-        <v>33376874</v>
+        <f t="shared" si="9"/>
+        <v>5958241</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" si="41"/>
-        <v>33376874</v>
+        <f t="shared" si="10"/>
+        <v>5958241</v>
       </c>
       <c r="P40" s="1">
-        <f t="shared" si="41"/>
-        <v>33376874</v>
+        <f t="shared" si="11"/>
+        <v>5958241</v>
       </c>
       <c r="Q40" s="1">
-        <f t="shared" si="41"/>
-        <v>33376874</v>
+        <f t="shared" si="12"/>
+        <v>5958241</v>
       </c>
       <c r="R40" s="1">
-        <f t="shared" si="41"/>
-        <v>33376874</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>5958241</v>
+      </c>
+      <c r="S40" s="1">
+        <f t="shared" si="14"/>
+        <v>5958241</v>
+      </c>
+      <c r="T40" s="1">
+        <f t="shared" si="15"/>
+        <v>5958241</v>
+      </c>
+      <c r="U40" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41">
+        <v>1175198</v>
+      </c>
+      <c r="C41">
+        <v>1095440</v>
+      </c>
+      <c r="D41">
+        <v>2657174</v>
+      </c>
+      <c r="E41">
+        <v>2491947</v>
+      </c>
+      <c r="F41">
         <f t="shared" si="1"/>
         <v>2.2675999999999998</v>
-      </c>
-      <c r="C41">
-        <v>1175198</v>
-      </c>
-      <c r="D41">
-        <v>1095440</v>
-      </c>
-      <c r="E41">
-        <v>2657174</v>
-      </c>
-      <c r="F41">
-        <v>2491947</v>
       </c>
       <c r="G41">
         <f t="shared" si="2"/>
+        <v>2270638</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="3"/>
         <v>5149121</v>
       </c>
-      <c r="H41" s="1">
-        <f t="shared" si="3"/>
-        <v>11676146</v>
-      </c>
       <c r="I41" s="1">
-        <f t="shared" ref="I41:R41" si="42">IF(ROUNDDOWN(H41*$B41,0)&gt;2*SUM($D41:$E41),H41,ROUNDDOWN(H41*$B41,0))</f>
-        <v>11676146</v>
+        <f t="shared" si="4"/>
+        <v>5149121</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="42"/>
-        <v>11676146</v>
+        <f t="shared" si="5"/>
+        <v>5149121</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="42"/>
-        <v>11676146</v>
+        <f t="shared" si="6"/>
+        <v>5149121</v>
       </c>
       <c r="L41" s="1">
-        <f t="shared" si="42"/>
-        <v>11676146</v>
+        <f t="shared" si="7"/>
+        <v>5149121</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="42"/>
-        <v>11676146</v>
+        <f t="shared" si="8"/>
+        <v>5149121</v>
       </c>
       <c r="N41" s="1">
-        <f t="shared" si="42"/>
-        <v>11676146</v>
+        <f t="shared" si="9"/>
+        <v>5149121</v>
       </c>
       <c r="O41" s="1">
-        <f t="shared" si="42"/>
-        <v>11676146</v>
+        <f t="shared" si="10"/>
+        <v>5149121</v>
       </c>
       <c r="P41" s="1">
-        <f t="shared" si="42"/>
-        <v>11676146</v>
+        <f t="shared" si="11"/>
+        <v>5149121</v>
       </c>
       <c r="Q41" s="1">
-        <f t="shared" si="42"/>
-        <v>11676146</v>
+        <f t="shared" si="12"/>
+        <v>5149121</v>
       </c>
       <c r="R41" s="1">
-        <f t="shared" si="42"/>
-        <v>11676146</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>5149121</v>
+      </c>
+      <c r="S41" s="1">
+        <f t="shared" si="14"/>
+        <v>5149121</v>
+      </c>
+      <c r="T41" s="1">
+        <f t="shared" si="15"/>
+        <v>5149121</v>
+      </c>
+      <c r="U41" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42">
+        <v>2115336</v>
+      </c>
+      <c r="C42">
+        <v>2202769</v>
+      </c>
+      <c r="D42">
+        <v>15339</v>
+      </c>
+      <c r="E42">
+        <v>14652</v>
+      </c>
+      <c r="F42">
         <f t="shared" si="1"/>
         <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="C42">
-        <v>2115336</v>
-      </c>
-      <c r="D42">
-        <v>2202769</v>
-      </c>
-      <c r="E42">
-        <v>15339</v>
-      </c>
-      <c r="F42">
-        <v>14652</v>
       </c>
       <c r="G42">
         <f t="shared" si="2"/>
+        <v>4318105</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="3"/>
         <v>29991</v>
       </c>
-      <c r="H42" s="1">
-        <f t="shared" si="3"/>
-        <v>206</v>
-      </c>
       <c r="I42" s="1">
-        <f t="shared" ref="I42:R42" si="43">IF(ROUNDDOWN(H42*$B42,0)&gt;2*SUM($D42:$E42),H42,ROUNDDOWN(H42*$B42,0))</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>206.93790000000001</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1.4278</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="L42" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M42" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P42" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q42" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R42" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43">
+        <v>2346640</v>
+      </c>
+      <c r="C43">
+        <v>2197559</v>
+      </c>
+      <c r="D43">
+        <v>373470</v>
+      </c>
+      <c r="E43">
+        <v>353365</v>
+      </c>
+      <c r="F43">
         <f t="shared" si="1"/>
         <v>0.15989999999999999</v>
-      </c>
-      <c r="C43">
-        <v>2346640</v>
-      </c>
-      <c r="D43">
-        <v>2197559</v>
-      </c>
-      <c r="E43">
-        <v>373470</v>
-      </c>
-      <c r="F43">
-        <v>353365</v>
       </c>
       <c r="G43">
         <f t="shared" si="2"/>
+        <v>4544199</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="3"/>
         <v>726835</v>
       </c>
-      <c r="H43" s="1">
-        <f t="shared" si="3"/>
-        <v>116220</v>
-      </c>
       <c r="I43" s="1">
-        <f t="shared" ref="I43:R43" si="44">IF(ROUNDDOWN(H43*$B43,0)&gt;2*SUM($D43:$E43),H43,ROUNDDOWN(H43*$B43,0))</f>
-        <v>18583</v>
+        <f t="shared" si="4"/>
+        <v>116220.91650000001</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="44"/>
-        <v>2971</v>
+        <f t="shared" si="5"/>
+        <v>18583.7245</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" si="44"/>
-        <v>475</v>
+        <f t="shared" si="6"/>
+        <v>2971.5374999999999</v>
       </c>
       <c r="L43" s="1">
-        <f t="shared" si="44"/>
-        <v>75</v>
+        <f t="shared" si="7"/>
+        <v>475.14879999999999</v>
       </c>
       <c r="M43" s="1">
-        <f t="shared" si="44"/>
-        <v>11</v>
+        <f t="shared" si="8"/>
+        <v>75.976200000000006</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" si="44"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>12.1485</v>
       </c>
       <c r="O43" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1.9424999999999999</v>
       </c>
       <c r="P43" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0.31059999999999999</v>
       </c>
       <c r="Q43" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>4.9599999999999998E-2</v>
       </c>
       <c r="R43" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="S43" s="1">
+        <f t="shared" si="14"/>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="T43" s="1">
+        <f t="shared" si="15"/>
+        <v>1E-4</v>
+      </c>
+      <c r="U43" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44">
+        <v>2548438</v>
+      </c>
+      <c r="C44">
+        <v>2577213</v>
+      </c>
+      <c r="D44">
+        <v>37986</v>
+      </c>
+      <c r="E44">
+        <v>37766</v>
+      </c>
+      <c r="F44">
         <f t="shared" si="1"/>
         <v>1.47E-2</v>
-      </c>
-      <c r="C44">
-        <v>2548438</v>
-      </c>
-      <c r="D44">
-        <v>2577213</v>
-      </c>
-      <c r="E44">
-        <v>37986</v>
-      </c>
-      <c r="F44">
-        <v>37766</v>
       </c>
       <c r="G44">
         <f t="shared" si="2"/>
+        <v>5125651</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="3"/>
         <v>75752</v>
       </c>
-      <c r="H44" s="1">
-        <f t="shared" si="3"/>
-        <v>1113</v>
-      </c>
       <c r="I44" s="1">
-        <f t="shared" ref="I44:R44" si="45">IF(ROUNDDOWN(H44*$B44,0)&gt;2*SUM($D44:$E44),H44,ROUNDDOWN(H44*$B44,0))</f>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>1113.5544</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="45"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>16.369199999999999</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" si="45"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.24060000000000001</v>
       </c>
       <c r="L44" s="1">
-        <f t="shared" si="45"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N44" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O44" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P44" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q44" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R44" s="1">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45">
+        <v>835495</v>
+      </c>
+      <c r="C45">
+        <v>837746</v>
+      </c>
+      <c r="D45">
+        <v>1106177</v>
+      </c>
+      <c r="E45">
+        <v>917781</v>
+      </c>
+      <c r="F45">
         <f t="shared" si="1"/>
         <v>1.2096</v>
-      </c>
-      <c r="C45">
-        <v>835495</v>
-      </c>
-      <c r="D45">
-        <v>837746</v>
-      </c>
-      <c r="E45">
-        <v>1106177</v>
-      </c>
-      <c r="F45">
-        <v>917781</v>
       </c>
       <c r="G45">
         <f t="shared" si="2"/>
+        <v>1673241</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="3"/>
         <v>2023958</v>
       </c>
-      <c r="H45" s="1">
-        <f t="shared" si="3"/>
-        <v>2448179</v>
-      </c>
       <c r="I45" s="1">
-        <f t="shared" ref="I45:R45" si="46">IF(ROUNDDOWN(H45*$B45,0)&gt;2*SUM($D45:$E45),H45,ROUNDDOWN(H45*$B45,0))</f>
-        <v>2961317</v>
+        <f t="shared" si="4"/>
+        <v>2448179.5967999999</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" si="46"/>
-        <v>3582009</v>
+        <f t="shared" si="5"/>
+        <v>2961318.0402000002</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="46"/>
-        <v>3582009</v>
+        <f t="shared" si="6"/>
+        <v>3582010.3014000002</v>
       </c>
       <c r="L45" s="1">
-        <f t="shared" si="46"/>
-        <v>3582009</v>
+        <f t="shared" si="7"/>
+        <v>3582010.3014000002</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" si="46"/>
-        <v>3582009</v>
+        <f t="shared" si="8"/>
+        <v>3582010.3014000002</v>
       </c>
       <c r="N45" s="1">
-        <f t="shared" si="46"/>
-        <v>3582009</v>
+        <f t="shared" si="9"/>
+        <v>3582010.3014000002</v>
       </c>
       <c r="O45" s="1">
-        <f t="shared" si="46"/>
-        <v>3582009</v>
+        <f t="shared" si="10"/>
+        <v>3582010.3014000002</v>
       </c>
       <c r="P45" s="1">
-        <f t="shared" si="46"/>
-        <v>3582009</v>
+        <f t="shared" si="11"/>
+        <v>3582010.3014000002</v>
       </c>
       <c r="Q45" s="1">
-        <f t="shared" si="46"/>
-        <v>3582009</v>
+        <f t="shared" si="12"/>
+        <v>3582010.3014000002</v>
       </c>
       <c r="R45" s="1">
-        <f t="shared" si="46"/>
-        <v>3582009</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>3582010.3014000002</v>
+      </c>
+      <c r="S45" s="1">
+        <f t="shared" si="14"/>
+        <v>3582010.3014000002</v>
+      </c>
+      <c r="T45" s="1">
+        <f t="shared" si="15"/>
+        <v>3582010.3014000002</v>
+      </c>
+      <c r="U45" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46">
+        <v>1187448</v>
+      </c>
+      <c r="C46">
+        <v>1070426</v>
+      </c>
+      <c r="D46">
+        <v>1504608</v>
+      </c>
+      <c r="E46">
+        <v>1756990</v>
+      </c>
+      <c r="F46">
         <f t="shared" si="1"/>
         <v>1.4444999999999999</v>
-      </c>
-      <c r="C46">
-        <v>1187448</v>
-      </c>
-      <c r="D46">
-        <v>1070426</v>
-      </c>
-      <c r="E46">
-        <v>1504608</v>
-      </c>
-      <c r="F46">
-        <v>1756990</v>
       </c>
       <c r="G46">
         <f t="shared" si="2"/>
+        <v>2257874</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="3"/>
         <v>3261598</v>
       </c>
-      <c r="H46" s="1">
-        <f t="shared" si="3"/>
-        <v>4711378</v>
-      </c>
       <c r="I46" s="1">
-        <f t="shared" ref="I46:R46" si="47">IF(ROUNDDOWN(H46*$B46,0)&gt;2*SUM($D46:$E46),H46,ROUNDDOWN(H46*$B46,0))</f>
-        <v>4711378</v>
+        <f t="shared" si="4"/>
+        <v>4711378.3109999998</v>
       </c>
       <c r="J46" s="1">
-        <f t="shared" si="47"/>
-        <v>4711378</v>
+        <f t="shared" si="5"/>
+        <v>4711378.3109999998</v>
       </c>
       <c r="K46" s="1">
-        <f t="shared" si="47"/>
-        <v>4711378</v>
+        <f t="shared" si="6"/>
+        <v>4711378.3109999998</v>
       </c>
       <c r="L46" s="1">
-        <f t="shared" si="47"/>
-        <v>4711378</v>
+        <f t="shared" si="7"/>
+        <v>4711378.3109999998</v>
       </c>
       <c r="M46" s="1">
-        <f t="shared" si="47"/>
-        <v>4711378</v>
+        <f t="shared" si="8"/>
+        <v>4711378.3109999998</v>
       </c>
       <c r="N46" s="1">
-        <f t="shared" si="47"/>
-        <v>4711378</v>
+        <f t="shared" si="9"/>
+        <v>4711378.3109999998</v>
       </c>
       <c r="O46" s="1">
-        <f t="shared" si="47"/>
-        <v>4711378</v>
+        <f t="shared" si="10"/>
+        <v>4711378.3109999998</v>
       </c>
       <c r="P46" s="1">
-        <f t="shared" si="47"/>
-        <v>4711378</v>
+        <f t="shared" si="11"/>
+        <v>4711378.3109999998</v>
       </c>
       <c r="Q46" s="1">
-        <f t="shared" si="47"/>
-        <v>4711378</v>
+        <f t="shared" si="12"/>
+        <v>4711378.3109999998</v>
       </c>
       <c r="R46" s="1">
-        <f t="shared" si="47"/>
-        <v>4711378</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>4711378.3109999998</v>
+      </c>
+      <c r="S46" s="1">
+        <f t="shared" si="14"/>
+        <v>4711378.3109999998</v>
+      </c>
+      <c r="T46" s="1">
+        <f t="shared" si="15"/>
+        <v>4711378.3109999998</v>
+      </c>
+      <c r="U46" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47">
+        <v>140026</v>
+      </c>
+      <c r="C47">
+        <v>146354</v>
+      </c>
+      <c r="D47">
+        <v>2759991</v>
+      </c>
+      <c r="E47">
+        <v>2742120</v>
+      </c>
+      <c r="F47">
         <f t="shared" si="1"/>
         <v>19.212599999999998</v>
-      </c>
-      <c r="C47">
-        <v>140026</v>
-      </c>
-      <c r="D47">
-        <v>146354</v>
-      </c>
-      <c r="E47">
-        <v>2759991</v>
-      </c>
-      <c r="F47">
-        <v>2742120</v>
       </c>
       <c r="G47">
         <f t="shared" si="2"/>
+        <v>286380</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="3"/>
         <v>5502111</v>
       </c>
-      <c r="H47" s="1">
-        <f t="shared" si="3"/>
-        <v>105709857</v>
-      </c>
       <c r="I47" s="1">
-        <f t="shared" ref="I47:R47" si="48">IF(ROUNDDOWN(H47*$B47,0)&gt;2*SUM($D47:$E47),H47,ROUNDDOWN(H47*$B47,0))</f>
-        <v>105709857</v>
+        <f t="shared" si="4"/>
+        <v>5502111</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="48"/>
-        <v>105709857</v>
+        <f t="shared" si="5"/>
+        <v>5502111</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" si="48"/>
-        <v>105709857</v>
+        <f t="shared" si="6"/>
+        <v>5502111</v>
       </c>
       <c r="L47" s="1">
-        <f t="shared" si="48"/>
-        <v>105709857</v>
+        <f t="shared" si="7"/>
+        <v>5502111</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" si="48"/>
-        <v>105709857</v>
+        <f t="shared" si="8"/>
+        <v>5502111</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" si="48"/>
-        <v>105709857</v>
+        <f t="shared" si="9"/>
+        <v>5502111</v>
       </c>
       <c r="O47" s="1">
-        <f t="shared" si="48"/>
-        <v>105709857</v>
+        <f t="shared" si="10"/>
+        <v>5502111</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" si="48"/>
-        <v>105709857</v>
+        <f t="shared" si="11"/>
+        <v>5502111</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" si="48"/>
-        <v>105709857</v>
+        <f t="shared" si="12"/>
+        <v>5502111</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" si="48"/>
-        <v>105709857</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>5502111</v>
+      </c>
+      <c r="S47" s="1">
+        <f t="shared" si="14"/>
+        <v>5502111</v>
+      </c>
+      <c r="T47" s="1">
+        <f t="shared" si="15"/>
+        <v>5502111</v>
+      </c>
+      <c r="U47" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48">
+        <v>1198765</v>
+      </c>
+      <c r="C48">
+        <v>1304945</v>
+      </c>
+      <c r="D48">
+        <v>2786493</v>
+      </c>
+      <c r="E48">
+        <v>2602643</v>
+      </c>
+      <c r="F48">
         <f t="shared" si="1"/>
         <v>2.1524000000000001</v>
-      </c>
-      <c r="C48">
-        <v>1198765</v>
-      </c>
-      <c r="D48">
-        <v>1304945</v>
-      </c>
-      <c r="E48">
-        <v>2786493</v>
-      </c>
-      <c r="F48">
-        <v>2602643</v>
       </c>
       <c r="G48">
         <f t="shared" si="2"/>
+        <v>2503710</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="3"/>
         <v>5389136</v>
       </c>
-      <c r="H48" s="1">
-        <f t="shared" si="3"/>
-        <v>11599576</v>
-      </c>
       <c r="I48" s="1">
-        <f t="shared" ref="I48:R48" si="49">IF(ROUNDDOWN(H48*$B48,0)&gt;2*SUM($D48:$E48),H48,ROUNDDOWN(H48*$B48,0))</f>
-        <v>11599576</v>
+        <f t="shared" si="4"/>
+        <v>5389136</v>
       </c>
       <c r="J48" s="1">
-        <f t="shared" si="49"/>
-        <v>11599576</v>
+        <f t="shared" si="5"/>
+        <v>5389136</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" si="49"/>
-        <v>11599576</v>
+        <f t="shared" si="6"/>
+        <v>5389136</v>
       </c>
       <c r="L48" s="1">
-        <f t="shared" si="49"/>
-        <v>11599576</v>
+        <f t="shared" si="7"/>
+        <v>5389136</v>
       </c>
       <c r="M48" s="1">
-        <f t="shared" si="49"/>
-        <v>11599576</v>
+        <f t="shared" si="8"/>
+        <v>5389136</v>
       </c>
       <c r="N48" s="1">
-        <f t="shared" si="49"/>
-        <v>11599576</v>
+        <f t="shared" si="9"/>
+        <v>5389136</v>
       </c>
       <c r="O48" s="1">
-        <f t="shared" si="49"/>
-        <v>11599576</v>
+        <f t="shared" si="10"/>
+        <v>5389136</v>
       </c>
       <c r="P48" s="1">
-        <f t="shared" si="49"/>
-        <v>11599576</v>
+        <f t="shared" si="11"/>
+        <v>5389136</v>
       </c>
       <c r="Q48" s="1">
-        <f t="shared" si="49"/>
-        <v>11599576</v>
+        <f t="shared" si="12"/>
+        <v>5389136</v>
       </c>
       <c r="R48" s="1">
-        <f t="shared" si="49"/>
-        <v>11599576</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>5389136</v>
+      </c>
+      <c r="S48" s="1">
+        <f t="shared" si="14"/>
+        <v>5389136</v>
+      </c>
+      <c r="T48" s="1">
+        <f t="shared" si="15"/>
+        <v>5389136</v>
+      </c>
+      <c r="U48" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49">
+        <v>2619776</v>
+      </c>
+      <c r="C49">
+        <v>2749623</v>
+      </c>
+      <c r="D49">
+        <v>2888215</v>
+      </c>
+      <c r="E49">
+        <v>2800174</v>
+      </c>
+      <c r="F49">
         <f t="shared" si="1"/>
         <v>1.0593999999999999</v>
-      </c>
-      <c r="C49">
-        <v>2619776</v>
-      </c>
-      <c r="D49">
-        <v>2749623</v>
-      </c>
-      <c r="E49">
-        <v>2888215</v>
-      </c>
-      <c r="F49">
-        <v>2800174</v>
       </c>
       <c r="G49">
         <f t="shared" si="2"/>
+        <v>5369399</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="3"/>
         <v>5688389</v>
       </c>
-      <c r="H49" s="1">
-        <f t="shared" si="3"/>
-        <v>6026279</v>
-      </c>
       <c r="I49" s="1">
-        <f t="shared" ref="I49:R49" si="50">IF(ROUNDDOWN(H49*$B49,0)&gt;2*SUM($D49:$E49),H49,ROUNDDOWN(H49*$B49,0))</f>
-        <v>6384239</v>
+        <f t="shared" si="4"/>
+        <v>6026279.3065999998</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="50"/>
-        <v>6763462</v>
+        <f t="shared" si="5"/>
+        <v>6384240.2973999996</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="50"/>
-        <v>7165211</v>
+        <f t="shared" si="6"/>
+        <v>6763464.1710000001</v>
       </c>
       <c r="L49" s="1">
-        <f t="shared" si="50"/>
-        <v>7590824</v>
+        <f t="shared" si="7"/>
+        <v>7165213.9426999995</v>
       </c>
       <c r="M49" s="1">
-        <f t="shared" si="50"/>
-        <v>8041718</v>
+        <f t="shared" si="8"/>
+        <v>7590827.6507999999</v>
       </c>
       <c r="N49" s="1">
-        <f t="shared" si="50"/>
-        <v>8519396</v>
+        <f t="shared" si="9"/>
+        <v>8041722.8131999997</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" si="50"/>
-        <v>9025448</v>
+        <f t="shared" si="10"/>
+        <v>8519401.1482999995</v>
       </c>
       <c r="P49" s="1">
-        <f t="shared" si="50"/>
-        <v>9561559</v>
+        <f t="shared" si="11"/>
+        <v>9025453.5765000004</v>
       </c>
       <c r="Q49" s="1">
-        <f t="shared" si="50"/>
-        <v>10129515</v>
+        <f t="shared" si="12"/>
+        <v>9561565.5188999996</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" si="50"/>
-        <v>10731208</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>10129522.5107</v>
+      </c>
+      <c r="S49" s="1">
+        <f t="shared" si="14"/>
+        <v>10731216.1478</v>
+      </c>
+      <c r="T49" s="1">
+        <f t="shared" si="15"/>
+        <v>11368650.3869</v>
+      </c>
+      <c r="U49" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50">
+        <v>248398</v>
+      </c>
+      <c r="C50">
+        <v>268511</v>
+      </c>
+      <c r="D50">
+        <v>3110853</v>
+      </c>
+      <c r="E50">
+        <v>2986411</v>
+      </c>
+      <c r="F50">
         <f t="shared" si="1"/>
         <v>11.7956</v>
-      </c>
-      <c r="C50">
-        <v>248398</v>
-      </c>
-      <c r="D50">
-        <v>268511</v>
-      </c>
-      <c r="E50">
-        <v>3110853</v>
-      </c>
-      <c r="F50">
-        <v>2986411</v>
       </c>
       <c r="G50">
         <f t="shared" si="2"/>
+        <v>516909</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="3"/>
         <v>6097264</v>
       </c>
-      <c r="H50" s="1">
-        <f t="shared" si="3"/>
-        <v>71920887</v>
-      </c>
       <c r="I50" s="1">
-        <f t="shared" ref="I50:R50" si="51">IF(ROUNDDOWN(H50*$B50,0)&gt;2*SUM($D50:$E50),H50,ROUNDDOWN(H50*$B50,0))</f>
-        <v>71920887</v>
+        <f t="shared" si="4"/>
+        <v>6097264</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="51"/>
-        <v>71920887</v>
+        <f t="shared" si="5"/>
+        <v>6097264</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="51"/>
-        <v>71920887</v>
+        <f t="shared" si="6"/>
+        <v>6097264</v>
       </c>
       <c r="L50" s="1">
-        <f t="shared" si="51"/>
-        <v>71920887</v>
+        <f t="shared" si="7"/>
+        <v>6097264</v>
       </c>
       <c r="M50" s="1">
-        <f t="shared" si="51"/>
-        <v>71920887</v>
+        <f t="shared" si="8"/>
+        <v>6097264</v>
       </c>
       <c r="N50" s="1">
-        <f t="shared" si="51"/>
-        <v>71920887</v>
+        <f t="shared" si="9"/>
+        <v>6097264</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" si="51"/>
-        <v>71920887</v>
+        <f t="shared" si="10"/>
+        <v>6097264</v>
       </c>
       <c r="P50" s="1">
-        <f t="shared" si="51"/>
-        <v>71920887</v>
+        <f t="shared" si="11"/>
+        <v>6097264</v>
       </c>
       <c r="Q50" s="1">
-        <f t="shared" si="51"/>
-        <v>71920887</v>
+        <f t="shared" si="12"/>
+        <v>6097264</v>
       </c>
       <c r="R50" s="1">
-        <f t="shared" si="51"/>
-        <v>71920887</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
+        <f t="shared" si="13"/>
+        <v>6097264</v>
+      </c>
+      <c r="S50" s="1">
+        <f t="shared" si="14"/>
+        <v>6097264</v>
+      </c>
+      <c r="T50" s="1">
+        <f t="shared" si="15"/>
+        <v>6097264</v>
+      </c>
+      <c r="U50" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51">
+        <v>2494207</v>
+      </c>
+      <c r="C51">
+        <v>2625207</v>
+      </c>
+      <c r="D51">
+        <v>1796293</v>
+      </c>
+      <c r="E51">
+        <v>1853602</v>
+      </c>
+      <c r="F51">
         <f t="shared" si="1"/>
         <v>0.71289999999999998</v>
-      </c>
-      <c r="C51">
-        <v>2494207</v>
-      </c>
-      <c r="D51">
-        <v>2625207</v>
-      </c>
-      <c r="E51">
-        <v>1796293</v>
-      </c>
-      <c r="F51">
-        <v>1853602</v>
       </c>
       <c r="G51">
         <f t="shared" si="2"/>
+        <v>5119414</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="3"/>
         <v>3649895</v>
       </c>
-      <c r="H51" s="1">
-        <f t="shared" si="3"/>
-        <v>2602010</v>
-      </c>
       <c r="I51" s="1">
-        <f t="shared" ref="I51:R51" si="52">IF(ROUNDDOWN(H51*$B51,0)&gt;2*SUM($D51:$E51),H51,ROUNDDOWN(H51*$B51,0))</f>
-        <v>1854972</v>
+        <f t="shared" si="4"/>
+        <v>2602010.1455000001</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="52"/>
-        <v>1322409</v>
+        <f t="shared" si="5"/>
+        <v>1854973.0327000001</v>
       </c>
       <c r="K51" s="1">
-        <f t="shared" si="52"/>
-        <v>942745</v>
+        <f t="shared" si="6"/>
+        <v>1322410.2749999999</v>
       </c>
       <c r="L51" s="1">
-        <f t="shared" si="52"/>
-        <v>672082</v>
+        <f t="shared" si="7"/>
+        <v>942746.28500000003</v>
       </c>
       <c r="M51" s="1">
-        <f t="shared" si="52"/>
-        <v>479127</v>
+        <f t="shared" si="8"/>
+        <v>672083.82649999997</v>
       </c>
       <c r="N51" s="1">
-        <f t="shared" si="52"/>
-        <v>341569</v>
+        <f t="shared" si="9"/>
+        <v>479128.55989999999</v>
       </c>
       <c r="O51" s="1">
-        <f t="shared" si="52"/>
-        <v>243504</v>
+        <f t="shared" si="10"/>
+        <v>341570.75030000001</v>
       </c>
       <c r="P51" s="1">
-        <f t="shared" si="52"/>
-        <v>173594</v>
+        <f t="shared" si="11"/>
+        <v>243505.78779999999</v>
       </c>
       <c r="Q51" s="1">
-        <f t="shared" si="52"/>
-        <v>123755</v>
+        <f t="shared" si="12"/>
+        <v>173595.27609999999</v>
       </c>
       <c r="R51" s="1">
-        <f t="shared" si="52"/>
-        <v>88224</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18">
-      <c r="R52" s="1">
-        <f>SUM(R2:R51)</f>
-        <v>397671171</v>
+        <f t="shared" si="13"/>
+        <v>123756.0723</v>
+      </c>
+      <c r="S51" s="1">
+        <f t="shared" si="14"/>
+        <v>88225.703899999993</v>
+      </c>
+      <c r="T51" s="1">
+        <f t="shared" si="15"/>
+        <v>62896.104299999999</v>
+      </c>
+      <c r="U51" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S52" s="1">
+        <f>SUM(S2:S51)</f>
+        <v>125930287.5724</v>
+      </c>
+      <c r="U52" s="1">
+        <f>SUM(U2:U51)</f>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="S2:T51">
+    <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:U51 G2:T2 T3:U51">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:U51">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
